--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_24_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287148.3364714456</v>
+        <v>167998.7548467062</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3904542.806827562</v>
+        <v>3904542.806827563</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>91.41247864545612</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>71.4865292553212</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>19.9259493901346</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
     </row>
     <row r="12">
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.1958182034771953</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>30.40048701405003</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1493,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.47046355369881</v>
+        <v>10.47046355369872</v>
       </c>
       <c r="R12" t="n">
-        <v>80.74619688828028</v>
+        <v>80.74619688828024</v>
       </c>
       <c r="S12" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>73.57879922468538</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.111041700716196</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.111041700716279</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>91.41247864545612</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>71.48652925532126</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>19.92594939013458</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
     </row>
     <row r="15">
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>63.04612765659869</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>30.40048701405001</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,25 +1730,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.47046355369879</v>
+        <v>10.47046355369872</v>
       </c>
       <c r="R15" t="n">
-        <v>80.74619688828028</v>
+        <v>80.74619688828024</v>
       </c>
       <c r="S15" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="T15" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10.53267156808675</v>
+        <v>103.783468035259</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>0.1958182034771953</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>103.783468035259</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>2.111041700716208</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.111041700716279</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.48652925532126</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="G17" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="H17" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>19.92594939013458</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>91.41247864545618</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,25 +1928,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.9285027016016</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.04612765659869</v>
+        <v>0.195818203477248</v>
       </c>
       <c r="J18" t="n">
-        <v>30.40048701405001</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>10.47046355369879</v>
+        <v>10.47046355369869</v>
       </c>
       <c r="R18" t="n">
-        <v>80.74619688828028</v>
+        <v>80.74619688828022</v>
       </c>
       <c r="S18" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>13.38763690174386</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.111041700716293</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>2.111041700716208</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>100.897315452448</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>94.29863122826653</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>91.41247864545618</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1958182034767451</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2204,31 +2204,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.47046355369879</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.74619688828028</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>103.7834680352587</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="Y21" t="n">
-        <v>103.7834680352587</v>
+        <v>91.41247864545618</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2.111041700716293</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.111041700716208</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18.12986341672809</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>15.22134930977396</v>
+      </c>
+      <c r="R23" t="n">
+        <v>92.96932286700057</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>96.28011026208191</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>79.26941829037965</v>
       </c>
       <c r="Y23" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>96.28011026208176</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>96.28011026208191</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>109.3098436218005</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.534743051583471</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.534743051583443</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>109.3098436218004</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>109.3098436218004</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>109.3098436218004</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="J26" t="n">
-        <v>18.12986341672809</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>15.22134930977396</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>92.96932286700057</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>97.39928170710756</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.15024684535371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>95.74565876320672</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>109.3098436218004</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>109.3098436218004</v>
+        <v>96.28011026208176</v>
       </c>
       <c r="H27" t="n">
-        <v>100.8191503142495</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2678,22 +2678,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.025144806425928</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3.534743051583459</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.534743051583443</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3.310787395081228</v>
       </c>
       <c r="C29" t="n">
-        <v>97.39928170710773</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2836,31 +2836,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.22134930977396</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>92.96932286700057</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>109.3098436218005</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>109.3098436218005</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,67 +2870,67 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>96.28011026208176</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>7.211762389063117</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="V30" t="n">
         <v>109.3098436218005</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>9.025144806425928</v>
-      </c>
-      <c r="R30" t="n">
-        <v>80.04320306659272</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>109.3098436218005</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>3.534743051583443</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>3.534743051583443</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.26941829037945</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,22 +3037,22 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>18.12986341672809</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.22134930977396</v>
+        <v>3.310787395081237</v>
       </c>
       <c r="R32" t="n">
         <v>92.96932286700057</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>109.3098436218004</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.211762389063148</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3152,28 +3152,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.025144806425928</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.04320306659272</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>109.3098436218005</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>96.28011026208179</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.534743051583443</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>3.534743051583459</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,61 +3277,61 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>96.28011026208176</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="G35" t="n">
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>109.3098436218005</v>
-      </c>
-      <c r="H35" t="n">
-        <v>62.92889753557973</v>
-      </c>
-      <c r="I35" t="n">
-        <v>109.3098436218005</v>
-      </c>
-      <c r="J35" t="n">
-        <v>18.12986341672809</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>15.22134930977396</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3356,61 +3356,61 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>96.28011026208176</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="W36" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="X36" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.534743051583443</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>3.534743051583443</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>109.3098436218004</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>109.3098436218004</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="H38" t="n">
-        <v>97.3992817071077</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.22134930977396</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>92.96932286700057</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>96.28011026208179</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,67 +3587,67 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>96.28011026208179</v>
       </c>
-      <c r="E39" t="n">
-        <v>109.3098436218004</v>
-      </c>
-      <c r="F39" t="n">
-        <v>109.3098436218004</v>
-      </c>
-      <c r="G39" t="n">
-        <v>109.3098436218004</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.534743051583443</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>3.534743051583443</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,67 +3742,67 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>96.28011026208176</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>3.310787395081228</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>92.96932286700057</v>
-      </c>
-      <c r="S41" t="n">
+      <c r="V41" t="n">
         <v>109.3098436218005</v>
       </c>
-      <c r="T41" t="n">
+      <c r="W41" t="n">
         <v>109.3098436218005</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>29.33075051270983</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>9.025144806425928</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.04320306659272</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="U42" t="n">
-        <v>57.92421494294599</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>7.211762389063122</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>109.3098436218005</v>
+        <v>96.28011026208176</v>
       </c>
       <c r="G44" t="n">
         <v>109.3098436218005</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>3.310787395081228</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>92.96932286700057</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>109.3098436218005</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>9.025144806425928</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4109,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>87.25496545565585</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>96.28011026208179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,46 +4149,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>3.534743051583443</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="C11" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="D11" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="E11" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="F11" t="n">
-        <v>342.9252567316194</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="G11" t="n">
-        <v>238.0934708374187</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="H11" t="n">
-        <v>133.261684943218</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="I11" t="n">
-        <v>28.42989904901727</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="J11" t="n">
-        <v>8.302677442820695</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="K11" t="n">
-        <v>28.20753819502062</v>
+        <v>28.20753819502073</v>
       </c>
       <c r="L11" t="n">
-        <v>88.88049587780256</v>
+        <v>88.8804958778029</v>
       </c>
       <c r="M11" t="n">
-        <v>187.2685532352813</v>
+        <v>187.2685532352819</v>
       </c>
       <c r="N11" t="n">
-        <v>290.0141865901874</v>
+        <v>290.0141865901883</v>
       </c>
       <c r="O11" t="n">
-        <v>375.6684315695903</v>
+        <v>375.6684315695915</v>
       </c>
       <c r="P11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="Q11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="R11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="S11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="T11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="U11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="V11" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="W11" t="n">
-        <v>415.1338721410348</v>
+        <v>310.3020862468351</v>
       </c>
       <c r="X11" t="n">
-        <v>415.1338721410348</v>
+        <v>205.470300352634</v>
       </c>
       <c r="Y11" t="n">
-        <v>415.1338721410348</v>
+        <v>100.638514458433</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.01024008327527</v>
+        <v>218.1640453963513</v>
       </c>
       <c r="C12" t="n">
-        <v>39.01024008327527</v>
+        <v>218.1640453963513</v>
       </c>
       <c r="D12" t="n">
-        <v>39.01024008327527</v>
+        <v>218.1640453963513</v>
       </c>
       <c r="E12" t="n">
-        <v>39.01024008327527</v>
+        <v>113.3322595021503</v>
       </c>
       <c r="F12" t="n">
-        <v>39.01024008327527</v>
+        <v>8.500473607949203</v>
       </c>
       <c r="G12" t="n">
-        <v>39.01024008327527</v>
+        <v>8.500473607949203</v>
       </c>
       <c r="H12" t="n">
-        <v>39.01024008327527</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="I12" t="n">
-        <v>39.01024008327527</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="J12" t="n">
-        <v>8.302677442820695</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="K12" t="n">
-        <v>33.06394986853415</v>
+        <v>33.06394986853429</v>
       </c>
       <c r="L12" t="n">
-        <v>57.45591977229002</v>
+        <v>111.5230140019925</v>
       </c>
       <c r="M12" t="n">
-        <v>160.2015531271961</v>
+        <v>214.268647356899</v>
       </c>
       <c r="N12" t="n">
-        <v>262.9471864821022</v>
+        <v>317.0142807118054</v>
       </c>
       <c r="O12" t="n">
-        <v>357.8309923861443</v>
+        <v>411.8980866158477</v>
       </c>
       <c r="P12" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="Q12" t="n">
-        <v>404.5576463292178</v>
+        <v>404.5576463292193</v>
       </c>
       <c r="R12" t="n">
-        <v>322.9958312905508</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="S12" t="n">
-        <v>218.1640453963501</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="T12" t="n">
-        <v>113.3322595021494</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="U12" t="n">
-        <v>39.01024008327527</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="V12" t="n">
-        <v>39.01024008327527</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="W12" t="n">
-        <v>39.01024008327527</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="X12" t="n">
-        <v>39.01024008327527</v>
+        <v>218.1640453963513</v>
       </c>
       <c r="Y12" t="n">
-        <v>39.01024008327527</v>
+        <v>218.1640453963513</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="C13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="D13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="E13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="F13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="G13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="H13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="I13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="J13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="K13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="L13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="M13" t="n">
-        <v>8.302677442820695</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="N13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="O13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="P13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="R13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="S13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="T13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="U13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="V13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="W13" t="n">
-        <v>10.43504279707948</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="X13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.43504279707948</v>
+        <v>8.302677442820723</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="C14" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="D14" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="E14" t="n">
-        <v>415.1338721410348</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="F14" t="n">
-        <v>342.9252567316194</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="G14" t="n">
-        <v>238.0934708374187</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="H14" t="n">
-        <v>133.261684943218</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="I14" t="n">
-        <v>28.42989904901724</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="J14" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="K14" t="n">
-        <v>28.20753819502045</v>
+        <v>28.20753819502073</v>
       </c>
       <c r="L14" t="n">
-        <v>88.88049587780245</v>
+        <v>88.8804958778029</v>
       </c>
       <c r="M14" t="n">
-        <v>187.2685532352813</v>
+        <v>187.2685532352819</v>
       </c>
       <c r="N14" t="n">
-        <v>290.0141865901874</v>
+        <v>290.0141865901883</v>
       </c>
       <c r="O14" t="n">
-        <v>375.6684315695904</v>
+        <v>375.6684315695915</v>
       </c>
       <c r="P14" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="Q14" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="R14" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="S14" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="T14" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="U14" t="n">
-        <v>415.1338721410348</v>
+        <v>310.3020862468351</v>
       </c>
       <c r="V14" t="n">
-        <v>415.1338721410348</v>
+        <v>310.3020862468351</v>
       </c>
       <c r="W14" t="n">
-        <v>415.1338721410348</v>
+        <v>310.3020862468351</v>
       </c>
       <c r="X14" t="n">
-        <v>415.1338721410348</v>
+        <v>205.470300352634</v>
       </c>
       <c r="Y14" t="n">
-        <v>415.1338721410348</v>
+        <v>100.638514458433</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="C15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="D15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="E15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="F15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="G15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="H15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="I15" t="n">
-        <v>39.01024008327526</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="J15" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="K15" t="n">
-        <v>33.06394986853415</v>
+        <v>33.06394986853429</v>
       </c>
       <c r="L15" t="n">
-        <v>111.5230140019922</v>
+        <v>111.5230140019925</v>
       </c>
       <c r="M15" t="n">
-        <v>214.2686473568983</v>
+        <v>214.268647356899</v>
       </c>
       <c r="N15" t="n">
-        <v>317.0142807118044</v>
+        <v>317.0142807118054</v>
       </c>
       <c r="O15" t="n">
-        <v>357.8309923861443</v>
+        <v>411.8980866158477</v>
       </c>
       <c r="P15" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410361</v>
       </c>
       <c r="Q15" t="n">
-        <v>404.5576463292178</v>
+        <v>404.5576463292193</v>
       </c>
       <c r="R15" t="n">
-        <v>322.9958312905509</v>
+        <v>322.9958312905524</v>
       </c>
       <c r="S15" t="n">
-        <v>218.1640453963502</v>
+        <v>218.1640453963513</v>
       </c>
       <c r="T15" t="n">
-        <v>113.3322595021494</v>
+        <v>218.1640453963513</v>
       </c>
       <c r="U15" t="n">
-        <v>102.6931973121628</v>
+        <v>113.3322595021503</v>
       </c>
       <c r="V15" t="n">
-        <v>102.6931973121628</v>
+        <v>113.1344633370218</v>
       </c>
       <c r="W15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="X15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="Y15" t="n">
-        <v>102.6931973121628</v>
+        <v>8.302677442820723</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="C16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="D16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="E16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="F16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="G16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="H16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="I16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="J16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="K16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="L16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="M16" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="N16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="O16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="P16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="R16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="S16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="T16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="U16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="V16" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707959</v>
       </c>
       <c r="W16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="X16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.43504279707949</v>
+        <v>8.302677442820723</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="C17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="D17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="E17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="F17" t="n">
-        <v>342.9252567316194</v>
+        <v>113.1344633370218</v>
       </c>
       <c r="G17" t="n">
-        <v>238.0934708374187</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="H17" t="n">
-        <v>133.261684943218</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="I17" t="n">
-        <v>28.42989904901724</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="J17" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="K17" t="n">
-        <v>28.2075381950204</v>
+        <v>28.20753819502067</v>
       </c>
       <c r="L17" t="n">
-        <v>88.88049587780228</v>
+        <v>88.8804958778029</v>
       </c>
       <c r="M17" t="n">
-        <v>187.2685532352811</v>
+        <v>187.268553235282</v>
       </c>
       <c r="N17" t="n">
-        <v>290.0141865901874</v>
+        <v>290.0141865901886</v>
       </c>
       <c r="O17" t="n">
-        <v>375.6684315695904</v>
+        <v>375.6684315695917</v>
       </c>
       <c r="P17" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="Q17" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="R17" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="S17" t="n">
-        <v>415.1338721410348</v>
+        <v>310.3020862468352</v>
       </c>
       <c r="T17" t="n">
-        <v>415.1338721410348</v>
+        <v>310.3020862468352</v>
       </c>
       <c r="U17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="V17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="W17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="X17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="Y17" t="n">
-        <v>415.1338721410348</v>
+        <v>217.9662492312229</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>204.6411798390331</v>
+        <v>218.1640453963515</v>
       </c>
       <c r="C18" t="n">
-        <v>204.6411798390331</v>
+        <v>218.1640453963515</v>
       </c>
       <c r="D18" t="n">
-        <v>204.6411798390331</v>
+        <v>113.3322595021504</v>
       </c>
       <c r="E18" t="n">
-        <v>204.6411798390331</v>
+        <v>113.3322595021504</v>
       </c>
       <c r="F18" t="n">
-        <v>204.6411798390331</v>
+        <v>8.50047360794926</v>
       </c>
       <c r="G18" t="n">
-        <v>204.6411798390331</v>
+        <v>8.50047360794926</v>
       </c>
       <c r="H18" t="n">
-        <v>102.6931973121628</v>
+        <v>8.50047360794926</v>
       </c>
       <c r="I18" t="n">
-        <v>39.01024008327526</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="J18" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="K18" t="n">
-        <v>33.06394986853415</v>
+        <v>33.06394986853432</v>
       </c>
       <c r="L18" t="n">
-        <v>111.5230140019922</v>
+        <v>111.5230140019925</v>
       </c>
       <c r="M18" t="n">
-        <v>214.2686473568983</v>
+        <v>160.201553127197</v>
       </c>
       <c r="N18" t="n">
-        <v>262.9471864821022</v>
+        <v>262.9471864821035</v>
       </c>
       <c r="O18" t="n">
-        <v>357.8309923861443</v>
+        <v>357.8309923861457</v>
       </c>
       <c r="P18" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="Q18" t="n">
-        <v>404.5576463292178</v>
+        <v>404.5576463292195</v>
       </c>
       <c r="R18" t="n">
-        <v>322.9958312905509</v>
+        <v>322.9958312905526</v>
       </c>
       <c r="S18" t="n">
-        <v>218.1640453963502</v>
+        <v>322.9958312905526</v>
       </c>
       <c r="T18" t="n">
-        <v>204.6411798390331</v>
+        <v>322.9958312905526</v>
       </c>
       <c r="U18" t="n">
-        <v>204.6411798390331</v>
+        <v>322.9958312905526</v>
       </c>
       <c r="V18" t="n">
-        <v>204.6411798390331</v>
+        <v>322.9958312905526</v>
       </c>
       <c r="W18" t="n">
-        <v>204.6411798390331</v>
+        <v>218.1640453963515</v>
       </c>
       <c r="X18" t="n">
-        <v>204.6411798390331</v>
+        <v>218.1640453963515</v>
       </c>
       <c r="Y18" t="n">
-        <v>204.6411798390331</v>
+        <v>218.1640453963515</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="C19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="D19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="E19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="F19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="G19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="H19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="I19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="J19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="K19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="L19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="M19" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="N19" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="O19" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="P19" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="R19" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="S19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="T19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="U19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="V19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="W19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="X19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110.2191576978187</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="C20" t="n">
-        <v>110.2191576978187</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="D20" t="n">
-        <v>110.2191576978187</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="E20" t="n">
-        <v>110.2191576978187</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="F20" t="n">
-        <v>110.2191576978187</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="G20" t="n">
-        <v>110.2191576978187</v>
+        <v>113.1344633370218</v>
       </c>
       <c r="H20" t="n">
-        <v>110.2191576978187</v>
+        <v>113.1344633370218</v>
       </c>
       <c r="I20" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="J20" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="K20" t="n">
-        <v>28.2075381950205</v>
+        <v>28.20753819502067</v>
       </c>
       <c r="L20" t="n">
-        <v>88.88049587780245</v>
+        <v>88.88049587780279</v>
       </c>
       <c r="M20" t="n">
-        <v>187.2685532352811</v>
+        <v>187.2685532352818</v>
       </c>
       <c r="N20" t="n">
-        <v>290.0141865901873</v>
+        <v>290.0141865901886</v>
       </c>
       <c r="O20" t="n">
-        <v>375.6684315695903</v>
+        <v>375.6684315695917</v>
       </c>
       <c r="P20" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="Q20" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="R20" t="n">
-        <v>319.8827294862201</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="S20" t="n">
-        <v>319.8827294862201</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="T20" t="n">
-        <v>215.0509435920194</v>
+        <v>310.3020862468352</v>
       </c>
       <c r="U20" t="n">
-        <v>215.0509435920194</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="V20" t="n">
-        <v>215.0509435920194</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="W20" t="n">
-        <v>215.0509435920194</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="X20" t="n">
-        <v>215.0509435920194</v>
+        <v>217.9662492312229</v>
       </c>
       <c r="Y20" t="n">
-        <v>110.2191576978187</v>
+        <v>217.9662492312229</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>113.1344633370214</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="C21" t="n">
-        <v>113.1344633370214</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="D21" t="n">
-        <v>113.1344633370214</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="E21" t="n">
-        <v>113.1344633370214</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="F21" t="n">
-        <v>113.1344633370214</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="G21" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="H21" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="I21" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="J21" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="K21" t="n">
-        <v>33.06394986853415</v>
+        <v>33.06394986853432</v>
       </c>
       <c r="L21" t="n">
-        <v>57.45591977228997</v>
+        <v>111.5230140019925</v>
       </c>
       <c r="M21" t="n">
-        <v>160.2015531271961</v>
+        <v>160.201553127197</v>
       </c>
       <c r="N21" t="n">
-        <v>262.9471864821022</v>
+        <v>262.9471864821035</v>
       </c>
       <c r="O21" t="n">
-        <v>357.8309923861443</v>
+        <v>357.8309923861457</v>
       </c>
       <c r="P21" t="n">
-        <v>415.1338721410348</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="Q21" t="n">
-        <v>404.5576463292178</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="R21" t="n">
-        <v>322.9958312905509</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="S21" t="n">
-        <v>322.9958312905509</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="T21" t="n">
-        <v>218.1640453963502</v>
+        <v>415.1338721410364</v>
       </c>
       <c r="U21" t="n">
-        <v>218.1640453963502</v>
+        <v>310.3020862468352</v>
       </c>
       <c r="V21" t="n">
-        <v>218.1640453963502</v>
+        <v>205.4703003526341</v>
       </c>
       <c r="W21" t="n">
-        <v>218.1640453963502</v>
+        <v>205.4703003526341</v>
       </c>
       <c r="X21" t="n">
-        <v>218.1640453963502</v>
+        <v>100.638514458433</v>
       </c>
       <c r="Y21" t="n">
-        <v>113.3322595021494</v>
+        <v>8.302677442820727</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="C22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="D22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="E22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="F22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="G22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="H22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="I22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="J22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="K22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="L22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="M22" t="n">
-        <v>8.302677442820697</v>
+        <v>8.302677442820727</v>
       </c>
       <c r="N22" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="O22" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="P22" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.43504279707949</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="R22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="S22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="T22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="U22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="V22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="W22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="X22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.302677442820697</v>
+        <v>10.43504279707961</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>105.9974241181096</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="C23" t="n">
-        <v>105.9974241181096</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="D23" t="n">
-        <v>105.9974241181096</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="E23" t="n">
-        <v>105.9974241181096</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="F23" t="n">
-        <v>105.9974241181096</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="G23" t="n">
-        <v>105.9974241181096</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="H23" t="n">
-        <v>8.744787489744043</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="I23" t="n">
-        <v>8.744787489744043</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="J23" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K23" t="n">
-        <v>31.31459685595358</v>
+        <v>31.31459685595354</v>
       </c>
       <c r="L23" t="n">
-        <v>95.29365894529069</v>
+        <v>95.29365894529059</v>
       </c>
       <c r="M23" t="n">
-        <v>197.3603944731832</v>
+        <v>197.3603944731829</v>
       </c>
       <c r="N23" t="n">
-        <v>305.5771396587658</v>
+        <v>305.5771396587654</v>
       </c>
       <c r="O23" t="n">
-        <v>394.7612637556376</v>
+        <v>394.7612637556373</v>
       </c>
       <c r="P23" t="n">
-        <v>437.2393744872022</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="Q23" t="n">
-        <v>437.2393744872022</v>
+        <v>421.8642741742988</v>
       </c>
       <c r="R23" t="n">
-        <v>437.2393744872022</v>
+        <v>327.9558672379346</v>
       </c>
       <c r="S23" t="n">
-        <v>326.825391030838</v>
+        <v>327.9558672379346</v>
       </c>
       <c r="T23" t="n">
-        <v>326.825391030838</v>
+        <v>217.5418837815705</v>
       </c>
       <c r="U23" t="n">
-        <v>326.825391030838</v>
+        <v>217.5418837815705</v>
       </c>
       <c r="V23" t="n">
-        <v>326.825391030838</v>
+        <v>107.1279003252064</v>
       </c>
       <c r="W23" t="n">
-        <v>326.825391030838</v>
+        <v>107.1279003252064</v>
       </c>
       <c r="X23" t="n">
-        <v>326.825391030838</v>
+        <v>27.05778083997443</v>
       </c>
       <c r="Y23" t="n">
-        <v>216.4114075744738</v>
+        <v>27.05778083997443</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="C24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="D24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="E24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="F24" t="n">
-        <v>8.744787489744043</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="G24" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H24" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I24" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J24" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K24" t="n">
-        <v>35.31612648071184</v>
+        <v>35.31612648071183</v>
       </c>
       <c r="L24" t="n">
         <v>116.2090484872425</v>
       </c>
       <c r="M24" t="n">
-        <v>172.0284536493852</v>
+        <v>172.0284536493849</v>
       </c>
       <c r="N24" t="n">
-        <v>280.2451988349677</v>
+        <v>280.2451988349674</v>
       </c>
       <c r="O24" t="n">
-        <v>377.7959977304364</v>
+        <v>377.7959977304361</v>
       </c>
       <c r="P24" t="n">
-        <v>437.2393744872022</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="Q24" t="n">
-        <v>437.2393744872022</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R24" t="n">
-        <v>437.2393744872022</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S24" t="n">
-        <v>437.2393744872022</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="T24" t="n">
-        <v>339.9867378588366</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="U24" t="n">
-        <v>229.5727544024724</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="V24" t="n">
-        <v>119.1587709461082</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="W24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="X24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.744787489744043</v>
+        <v>216.4114075744736</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="C25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="D25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="E25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="F25" t="n">
-        <v>8.744787489744043</v>
+        <v>12.315235016596</v>
       </c>
       <c r="G25" t="n">
-        <v>8.744787489744043</v>
+        <v>12.315235016596</v>
       </c>
       <c r="H25" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I25" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J25" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K25" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="L25" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="M25" t="n">
-        <v>8.744787489744043</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="N25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="O25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="P25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="R25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="S25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="T25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="U25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="V25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="W25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="X25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.31523501659603</v>
+        <v>12.315235016596</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.8857477527026</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="C26" t="n">
-        <v>137.4717642963385</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="D26" t="n">
-        <v>27.05778083997442</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="E26" t="n">
-        <v>27.05778083997442</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="F26" t="n">
-        <v>27.05778083997442</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="G26" t="n">
-        <v>27.05778083997442</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="H26" t="n">
-        <v>27.05778083997442</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="I26" t="n">
-        <v>27.05778083997442</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J26" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K26" t="n">
-        <v>31.31459685595354</v>
+        <v>31.31459685595348</v>
       </c>
       <c r="L26" t="n">
-        <v>95.29365894529082</v>
+        <v>95.29365894529053</v>
       </c>
       <c r="M26" t="n">
         <v>197.3603944731829</v>
@@ -6244,34 +6244,34 @@
         <v>394.7612637556372</v>
       </c>
       <c r="P26" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872016</v>
       </c>
       <c r="Q26" t="n">
-        <v>437.2393744872017</v>
+        <v>421.8642741742987</v>
       </c>
       <c r="R26" t="n">
-        <v>437.2393744872017</v>
+        <v>327.9558672379345</v>
       </c>
       <c r="S26" t="n">
-        <v>437.2393744872017</v>
+        <v>327.9558672379345</v>
       </c>
       <c r="T26" t="n">
-        <v>437.2393744872017</v>
+        <v>327.9558672379345</v>
       </c>
       <c r="U26" t="n">
-        <v>437.2393744872017</v>
+        <v>217.5418837815703</v>
       </c>
       <c r="V26" t="n">
-        <v>437.2393744872017</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="W26" t="n">
-        <v>437.2393744872017</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="X26" t="n">
-        <v>437.2393744872017</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.2997312090666</v>
+        <v>119.1587709461081</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="C27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="D27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="E27" t="n">
-        <v>331.4102799724212</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="F27" t="n">
-        <v>220.9962965160572</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="G27" t="n">
-        <v>110.5823130596931</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H27" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I27" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J27" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K27" t="n">
-        <v>35.31612648071183</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="L27" t="n">
-        <v>116.2090484872425</v>
+        <v>89.63770949627472</v>
       </c>
       <c r="M27" t="n">
-        <v>224.4257936728249</v>
+        <v>197.8544546818572</v>
       </c>
       <c r="N27" t="n">
-        <v>280.2451988349673</v>
+        <v>306.0711998674396</v>
       </c>
       <c r="O27" t="n">
-        <v>377.7959977304359</v>
+        <v>377.7959977304361</v>
       </c>
       <c r="P27" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="Q27" t="n">
-        <v>428.123066601923</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R27" t="n">
-        <v>428.123066601923</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S27" t="n">
-        <v>428.123066601923</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="T27" t="n">
-        <v>428.123066601923</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="U27" t="n">
-        <v>428.123066601923</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="V27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="W27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="X27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="Y27" t="n">
-        <v>428.123066601923</v>
+        <v>105.9974241181095</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="C28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="D28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="E28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="F28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="G28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="L28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="M28" t="n">
-        <v>433.6689269603497</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="N28" t="n">
-        <v>437.2393744872017</v>
+        <v>12.315235016596</v>
       </c>
       <c r="O28" t="n">
-        <v>437.2393744872017</v>
+        <v>12.315235016596</v>
       </c>
       <c r="P28" t="n">
-        <v>437.2393744872017</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Q28" t="n">
-        <v>437.2393744872017</v>
+        <v>12.315235016596</v>
       </c>
       <c r="R28" t="n">
-        <v>437.2393744872017</v>
+        <v>12.315235016596</v>
       </c>
       <c r="S28" t="n">
-        <v>437.2393744872017</v>
+        <v>12.315235016596</v>
       </c>
       <c r="T28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="U28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="V28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="W28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="X28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>107.1279003252064</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="C29" t="n">
         <v>8.744787489744036</v>
@@ -6466,10 +6466,10 @@
         <v>8.744787489744036</v>
       </c>
       <c r="K29" t="n">
-        <v>31.3145968559536</v>
+        <v>31.31459685595358</v>
       </c>
       <c r="L29" t="n">
-        <v>95.2936589452907</v>
+        <v>95.29365894529069</v>
       </c>
       <c r="M29" t="n">
         <v>197.360394473183</v>
@@ -6484,31 +6484,31 @@
         <v>437.2393744872018</v>
       </c>
       <c r="Q29" t="n">
-        <v>421.8642741742988</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R29" t="n">
-        <v>327.9558672379346</v>
+        <v>343.3309675508376</v>
       </c>
       <c r="S29" t="n">
-        <v>327.9558672379346</v>
+        <v>232.9169840944735</v>
       </c>
       <c r="T29" t="n">
-        <v>327.9558672379346</v>
+        <v>232.9169840944735</v>
       </c>
       <c r="U29" t="n">
-        <v>327.9558672379346</v>
+        <v>122.5030006381094</v>
       </c>
       <c r="V29" t="n">
-        <v>217.5418837815705</v>
+        <v>122.5030006381094</v>
       </c>
       <c r="W29" t="n">
-        <v>217.5418837815705</v>
+        <v>122.5030006381094</v>
       </c>
       <c r="X29" t="n">
-        <v>107.1279003252064</v>
+        <v>122.5030006381094</v>
       </c>
       <c r="Y29" t="n">
-        <v>107.1279003252064</v>
+        <v>12.08901718174528</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>126.4433794199093</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="C30" t="n">
-        <v>126.4433794199093</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="D30" t="n">
-        <v>126.4433794199093</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="E30" t="n">
-        <v>126.4433794199093</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="F30" t="n">
-        <v>119.1587709461081</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="G30" t="n">
         <v>8.744787489744036</v>
@@ -6563,31 +6563,31 @@
         <v>437.2393744872018</v>
       </c>
       <c r="Q30" t="n">
-        <v>428.1230666019231</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R30" t="n">
-        <v>347.2713463326375</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S30" t="n">
-        <v>347.2713463326375</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="T30" t="n">
-        <v>347.2713463326375</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="U30" t="n">
-        <v>347.2713463326375</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="V30" t="n">
-        <v>347.2713463326375</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="W30" t="n">
-        <v>236.8573628762734</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="X30" t="n">
-        <v>236.8573628762734</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="Y30" t="n">
-        <v>236.8573628762734</v>
+        <v>105.9974241181095</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="C31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="D31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="E31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="F31" t="n">
         <v>8.744787489744036</v>
@@ -6648,25 +6648,25 @@
         <v>12.315235016596</v>
       </c>
       <c r="S31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="T31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="U31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="V31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="W31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="X31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.8857477527027</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="C32" t="n">
-        <v>247.8857477527027</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="D32" t="n">
-        <v>247.8857477527027</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="E32" t="n">
-        <v>247.8857477527027</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="F32" t="n">
-        <v>247.8857477527027</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="G32" t="n">
-        <v>137.4717642963386</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="H32" t="n">
-        <v>27.05778083997443</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="I32" t="n">
-        <v>27.05778083997443</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="J32" t="n">
-        <v>8.744787489744038</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="K32" t="n">
-        <v>31.31459685595348</v>
+        <v>31.31459685595349</v>
       </c>
       <c r="L32" t="n">
-        <v>95.29365894529053</v>
+        <v>95.29365894529059</v>
       </c>
       <c r="M32" t="n">
         <v>197.3603944731829</v>
@@ -6718,34 +6718,34 @@
         <v>394.7612637556372</v>
       </c>
       <c r="P32" t="n">
-        <v>437.2393744872016</v>
+        <v>437.2393744872017</v>
       </c>
       <c r="Q32" t="n">
-        <v>421.8642741742987</v>
+        <v>433.8951447952005</v>
       </c>
       <c r="R32" t="n">
-        <v>327.9558672379345</v>
+        <v>339.9867378588362</v>
       </c>
       <c r="S32" t="n">
-        <v>327.9558672379345</v>
+        <v>339.9867378588362</v>
       </c>
       <c r="T32" t="n">
-        <v>327.9558672379345</v>
+        <v>339.9867378588362</v>
       </c>
       <c r="U32" t="n">
-        <v>327.9558672379345</v>
+        <v>339.9867378588362</v>
       </c>
       <c r="V32" t="n">
-        <v>327.9558672379345</v>
+        <v>339.9867378588362</v>
       </c>
       <c r="W32" t="n">
-        <v>327.9558672379345</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="X32" t="n">
-        <v>327.9558672379345</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="Y32" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="C33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="D33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="E33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="F33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="G33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="H33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="I33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="J33" t="n">
-        <v>8.744787489744038</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="K33" t="n">
-        <v>8.744787489744038</v>
+        <v>35.31612648071183</v>
       </c>
       <c r="L33" t="n">
-        <v>89.63770949627472</v>
+        <v>116.2090484872425</v>
       </c>
       <c r="M33" t="n">
-        <v>197.8544546818572</v>
+        <v>224.4257936728249</v>
       </c>
       <c r="N33" t="n">
-        <v>280.2451988349674</v>
+        <v>280.2451988349673</v>
       </c>
       <c r="O33" t="n">
-        <v>377.7959977304361</v>
+        <v>377.7959977304359</v>
       </c>
       <c r="P33" t="n">
-        <v>437.2393744872019</v>
+        <v>437.2393744872017</v>
       </c>
       <c r="Q33" t="n">
-        <v>428.1230666019231</v>
+        <v>437.2393744872017</v>
       </c>
       <c r="R33" t="n">
-        <v>347.2713463326376</v>
+        <v>437.2393744872017</v>
       </c>
       <c r="S33" t="n">
-        <v>236.8573628762734</v>
+        <v>437.2393744872017</v>
       </c>
       <c r="T33" t="n">
-        <v>126.4433794199093</v>
+        <v>437.2393744872017</v>
       </c>
       <c r="U33" t="n">
-        <v>16.0293959635452</v>
+        <v>326.8253910308376</v>
       </c>
       <c r="V33" t="n">
-        <v>16.0293959635452</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="W33" t="n">
-        <v>16.0293959635452</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="X33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="Y33" t="n">
-        <v>16.0293959635452</v>
+        <v>8.744787489744034</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="C34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="D34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="E34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="F34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="G34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="H34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="I34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="J34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="K34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="L34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="M34" t="n">
-        <v>433.6689269603499</v>
+        <v>8.744787489744034</v>
       </c>
       <c r="N34" t="n">
-        <v>437.2393744872019</v>
+        <v>12.315235016596</v>
       </c>
       <c r="O34" t="n">
-        <v>437.2393744872019</v>
+        <v>12.315235016596</v>
       </c>
       <c r="P34" t="n">
-        <v>437.2393744872019</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Q34" t="n">
-        <v>437.2393744872019</v>
+        <v>12.315235016596</v>
       </c>
       <c r="R34" t="n">
-        <v>437.2393744872019</v>
+        <v>12.315235016596</v>
       </c>
       <c r="S34" t="n">
-        <v>437.2393744872019</v>
+        <v>12.315235016596</v>
       </c>
       <c r="T34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="U34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="V34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="W34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="X34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Y34" t="n">
-        <v>433.6689269603499</v>
+        <v>12.315235016596</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.8642741742988</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="C35" t="n">
-        <v>421.8642741742988</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="D35" t="n">
-        <v>421.8642741742988</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="E35" t="n">
-        <v>421.8642741742988</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="F35" t="n">
-        <v>311.4502907179347</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="G35" t="n">
-        <v>201.0363072615706</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H35" t="n">
-        <v>137.4717642963385</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I35" t="n">
-        <v>27.05778083997443</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J35" t="n">
         <v>8.744787489744036</v>
@@ -6958,31 +6958,31 @@
         <v>437.2393744872018</v>
       </c>
       <c r="Q35" t="n">
-        <v>421.8642741742988</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R35" t="n">
-        <v>421.8642741742988</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S35" t="n">
-        <v>421.8642741742988</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="T35" t="n">
-        <v>421.8642741742988</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="U35" t="n">
-        <v>421.8642741742988</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="V35" t="n">
-        <v>421.8642741742988</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="W35" t="n">
-        <v>421.8642741742988</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="X35" t="n">
-        <v>421.8642741742988</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="Y35" t="n">
-        <v>421.8642741742988</v>
+        <v>216.4114075744736</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>216.4114075744736</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="C36" t="n">
-        <v>216.4114075744736</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="D36" t="n">
-        <v>216.4114075744736</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="E36" t="n">
-        <v>216.4114075744736</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="F36" t="n">
-        <v>119.1587709461081</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="G36" t="n">
         <v>8.744787489744036</v>
@@ -7049,19 +7049,19 @@
         <v>437.2393744872018</v>
       </c>
       <c r="U36" t="n">
-        <v>437.2393744872018</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="V36" t="n">
-        <v>437.2393744872018</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="W36" t="n">
-        <v>326.8253910308377</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="X36" t="n">
-        <v>216.4114075744736</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="Y36" t="n">
-        <v>216.4114075744736</v>
+        <v>105.9974241181095</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="C37" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="D37" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="E37" t="n">
         <v>8.744787489744036</v>
@@ -7134,13 +7134,13 @@
         <v>12.315235016596</v>
       </c>
       <c r="W37" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="X37" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.744787489744036</v>
+        <v>12.315235016596</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="C38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="D38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="E38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="F38" t="n">
-        <v>217.5418837815704</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="G38" t="n">
-        <v>107.1279003252064</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H38" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I38" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J38" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K38" t="n">
-        <v>31.31459685595357</v>
+        <v>31.31459685595354</v>
       </c>
       <c r="L38" t="n">
-        <v>95.29365894529067</v>
+        <v>95.29365894529059</v>
       </c>
       <c r="M38" t="n">
-        <v>197.360394473183</v>
+        <v>197.3603944731829</v>
       </c>
       <c r="N38" t="n">
         <v>305.5771396587654</v>
       </c>
       <c r="O38" t="n">
-        <v>394.7612637556372</v>
+        <v>394.7612637556373</v>
       </c>
       <c r="P38" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="Q38" t="n">
-        <v>421.8642741742987</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R38" t="n">
-        <v>327.9558672379345</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S38" t="n">
-        <v>327.9558672379345</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="T38" t="n">
-        <v>327.9558672379345</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="U38" t="n">
-        <v>327.9558672379345</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="V38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="W38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="X38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="Y38" t="n">
-        <v>327.9558672379345</v>
+        <v>119.1587709461081</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="C39" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="D39" t="n">
-        <v>339.9867378588362</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="E39" t="n">
-        <v>229.5727544024722</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="F39" t="n">
-        <v>119.1587709461081</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="G39" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H39" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I39" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J39" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K39" t="n">
         <v>35.31612648071183</v>
@@ -7262,43 +7262,43 @@
         <v>116.2090484872425</v>
       </c>
       <c r="M39" t="n">
-        <v>224.4257936728249</v>
+        <v>224.425793672825</v>
       </c>
       <c r="N39" t="n">
-        <v>280.2451988349673</v>
+        <v>332.6425388584074</v>
       </c>
       <c r="O39" t="n">
-        <v>377.7959977304359</v>
+        <v>377.7959977304361</v>
       </c>
       <c r="P39" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="Q39" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="R39" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S39" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="T39" t="n">
-        <v>437.2393744872017</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="U39" t="n">
-        <v>437.2393744872017</v>
+        <v>339.9867378588364</v>
       </c>
       <c r="V39" t="n">
-        <v>437.2393744872017</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="W39" t="n">
-        <v>437.2393744872017</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="X39" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="Y39" t="n">
-        <v>437.2393744872017</v>
+        <v>8.744787489744036</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="C40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="D40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="E40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="F40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="G40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="K40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="L40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="M40" t="n">
-        <v>8.744787489744034</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="N40" t="n">
         <v>12.315235016596</v>
@@ -7371,13 +7371,13 @@
         <v>12.315235016596</v>
       </c>
       <c r="W40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="X40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.744787489744034</v>
+        <v>12.315235016596</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122.5030006381094</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="C41" t="n">
-        <v>12.08901718174528</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="D41" t="n">
-        <v>12.08901718174528</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="E41" t="n">
-        <v>12.08901718174528</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="F41" t="n">
-        <v>12.08901718174528</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="G41" t="n">
-        <v>12.08901718174528</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H41" t="n">
         <v>8.744787489744036</v>
@@ -7414,19 +7414,19 @@
         <v>8.744787489744036</v>
       </c>
       <c r="K41" t="n">
-        <v>31.31459685595349</v>
+        <v>31.3145968559536</v>
       </c>
       <c r="L41" t="n">
-        <v>95.29365894529053</v>
+        <v>95.29365894529076</v>
       </c>
       <c r="M41" t="n">
-        <v>197.3603944731829</v>
+        <v>197.360394473183</v>
       </c>
       <c r="N41" t="n">
-        <v>305.5771396587656</v>
+        <v>305.5771396587654</v>
       </c>
       <c r="O41" t="n">
-        <v>394.7612637556375</v>
+        <v>394.7612637556373</v>
       </c>
       <c r="P41" t="n">
         <v>437.2393744872018</v>
@@ -7435,28 +7435,28 @@
         <v>437.2393744872018</v>
       </c>
       <c r="R41" t="n">
-        <v>343.3309675508376</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S41" t="n">
-        <v>232.9169840944735</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="T41" t="n">
-        <v>122.5030006381094</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="U41" t="n">
-        <v>122.5030006381094</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="V41" t="n">
-        <v>122.5030006381094</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="W41" t="n">
-        <v>122.5030006381094</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="X41" t="n">
-        <v>122.5030006381094</v>
+        <v>105.9974241181095</v>
       </c>
       <c r="Y41" t="n">
-        <v>122.5030006381094</v>
+        <v>105.9974241181095</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>369.6137585787453</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="C42" t="n">
-        <v>369.6137585787453</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="D42" t="n">
-        <v>259.1997751223812</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="E42" t="n">
-        <v>259.1997751223812</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="F42" t="n">
-        <v>148.7857916660171</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="G42" t="n">
-        <v>38.37180820965295</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H42" t="n">
-        <v>38.37180820965295</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I42" t="n">
-        <v>38.37180820965295</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="J42" t="n">
         <v>8.744787489744036</v>
       </c>
       <c r="K42" t="n">
-        <v>8.744787489744036</v>
+        <v>35.31612648071183</v>
       </c>
       <c r="L42" t="n">
-        <v>89.63770949627472</v>
+        <v>116.2090484872425</v>
       </c>
       <c r="M42" t="n">
-        <v>172.0284536493849</v>
+        <v>224.425793672825</v>
       </c>
       <c r="N42" t="n">
         <v>280.2451988349674</v>
@@ -7514,28 +7514,28 @@
         <v>428.1230666019231</v>
       </c>
       <c r="R42" t="n">
-        <v>428.1230666019231</v>
+        <v>347.2713463326375</v>
       </c>
       <c r="S42" t="n">
-        <v>428.1230666019231</v>
+        <v>347.2713463326375</v>
       </c>
       <c r="T42" t="n">
-        <v>428.1230666019231</v>
+        <v>236.8573628762734</v>
       </c>
       <c r="U42" t="n">
-        <v>369.6137585787453</v>
+        <v>126.4433794199093</v>
       </c>
       <c r="V42" t="n">
-        <v>369.6137585787453</v>
+        <v>126.4433794199093</v>
       </c>
       <c r="W42" t="n">
-        <v>369.6137585787453</v>
+        <v>16.02939596354517</v>
       </c>
       <c r="X42" t="n">
-        <v>369.6137585787453</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="Y42" t="n">
-        <v>369.6137585787453</v>
+        <v>8.744787489744036</v>
       </c>
     </row>
     <row r="43">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="C44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="D44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="E44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="F44" t="n">
-        <v>122.5030006381094</v>
+        <v>119.1587709461081</v>
       </c>
       <c r="G44" t="n">
-        <v>12.08901718174528</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="H44" t="n">
-        <v>12.08901718174528</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="I44" t="n">
         <v>8.744787489744036</v>
@@ -7651,16 +7651,16 @@
         <v>8.744787489744036</v>
       </c>
       <c r="K44" t="n">
-        <v>31.31459685595358</v>
+        <v>31.31459685595348</v>
       </c>
       <c r="L44" t="n">
-        <v>95.29365894529064</v>
+        <v>95.29365894529053</v>
       </c>
       <c r="M44" t="n">
-        <v>197.360394473183</v>
+        <v>197.3603944731829</v>
       </c>
       <c r="N44" t="n">
-        <v>305.5771396587654</v>
+        <v>305.5771396587653</v>
       </c>
       <c r="O44" t="n">
         <v>394.7612637556373</v>
@@ -7672,28 +7672,28 @@
         <v>437.2393744872018</v>
       </c>
       <c r="R44" t="n">
-        <v>343.3309675508376</v>
+        <v>437.2393744872018</v>
       </c>
       <c r="S44" t="n">
-        <v>232.9169840944735</v>
+        <v>326.8253910308377</v>
       </c>
       <c r="T44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="U44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="V44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="W44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="X44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
       <c r="Y44" t="n">
-        <v>232.9169840944735</v>
+        <v>216.4114075744736</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.9867378588364</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="C45" t="n">
-        <v>339.9867378588364</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="D45" t="n">
         <v>229.5727544024722</v>
       </c>
       <c r="E45" t="n">
+        <v>229.5727544024722</v>
+      </c>
+      <c r="F45" t="n">
         <v>119.1587709461081</v>
-      </c>
-      <c r="F45" t="n">
-        <v>8.744787489744036</v>
       </c>
       <c r="G45" t="n">
         <v>8.744787489744036</v>
@@ -7730,16 +7730,16 @@
         <v>8.744787489744036</v>
       </c>
       <c r="K45" t="n">
-        <v>35.31612648071183</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="L45" t="n">
-        <v>116.2090484872425</v>
+        <v>63.81170846380246</v>
       </c>
       <c r="M45" t="n">
-        <v>224.425793672825</v>
+        <v>172.0284536493849</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6425388584074</v>
+        <v>280.2451988349674</v>
       </c>
       <c r="O45" t="n">
         <v>377.7959977304361</v>
@@ -7748,31 +7748,31 @@
         <v>437.2393744872018</v>
       </c>
       <c r="Q45" t="n">
-        <v>437.2393744872018</v>
+        <v>428.1230666019231</v>
       </c>
       <c r="R45" t="n">
-        <v>437.2393744872018</v>
+        <v>428.1230666019231</v>
       </c>
       <c r="S45" t="n">
-        <v>437.2393744872018</v>
+        <v>428.1230666019231</v>
       </c>
       <c r="T45" t="n">
-        <v>437.2393744872018</v>
+        <v>317.709083145559</v>
       </c>
       <c r="U45" t="n">
-        <v>437.2393744872018</v>
+        <v>317.709083145559</v>
       </c>
       <c r="V45" t="n">
-        <v>437.2393744872018</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="W45" t="n">
-        <v>437.2393744872018</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="X45" t="n">
-        <v>437.2393744872018</v>
+        <v>229.5727544024722</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.9867378588364</v>
+        <v>229.5727544024722</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="C46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="D46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="E46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="F46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="G46" t="n">
         <v>8.744787489744036</v>
@@ -7836,22 +7836,22 @@
         <v>12.315235016596</v>
       </c>
       <c r="T46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="U46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="V46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="W46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="X46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
       <c r="Y46" t="n">
-        <v>12.315235016596</v>
+        <v>8.744787489744036</v>
       </c>
     </row>
   </sheetData>
@@ -22573,7 +22573,7 @@
         <v>70.12451876312399</v>
       </c>
       <c r="K2" t="n">
-        <v>55.12872290169071</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L2" t="n">
         <v>32.04941132065568</v>
@@ -22810,7 +22810,7 @@
         <v>70.12451876312399</v>
       </c>
       <c r="K5" t="n">
-        <v>55.12872290169068</v>
+        <v>55.12872290169071</v>
       </c>
       <c r="L5" t="n">
         <v>32.04941132065568</v>
@@ -23047,7 +23047,7 @@
         <v>70.12451876312399</v>
       </c>
       <c r="K8" t="n">
-        <v>55.12872290169068</v>
+        <v>55.12872290169071</v>
       </c>
       <c r="L8" t="n">
         <v>32.04941132065568</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>292.3039313459389</v>
       </c>
       <c r="C11" t="n">
         <v>366.9850956789426</v>
@@ -23269,19 +23269,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>335.8073342252196</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>309.2262768819862</v>
+        <v>413.0097449172449</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4651192946451</v>
+        <v>319.2485873299038</v>
       </c>
       <c r="I11" t="n">
-        <v>30.31068752375582</v>
+        <v>134.0941555590144</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>19.92594939013449</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>17.50659155676672</v>
+        <v>17.50659155676658</v>
       </c>
       <c r="R11" t="n">
-        <v>94.29863122826654</v>
+        <v>94.29863122826644</v>
       </c>
       <c r="S11" t="n">
-        <v>163.8215473854592</v>
+        <v>163.8215473854591</v>
       </c>
       <c r="T11" t="n">
         <v>214.8885400163898</v>
@@ -23320,13 +23320,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>246.7466489652955</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>267.0781310959104</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>282.9036037159768</v>
       </c>
     </row>
     <row r="12">
@@ -23345,22 +23345,22 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>156.0334337071738</v>
+        <v>52.24996567191479</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>39.72276404829026</v>
       </c>
       <c r="G12" t="n">
         <v>135.0360372154505</v>
       </c>
       <c r="H12" t="n">
-        <v>100.9285027016016</v>
+        <v>100.7326844981244</v>
       </c>
       <c r="I12" t="n">
-        <v>63.04612765659869</v>
+        <v>63.04612765659866</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>30.40048701404996</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>46.84184055932781</v>
+        <v>150.6253085945865</v>
       </c>
       <c r="T12" t="n">
-        <v>90.62006397197996</v>
+        <v>194.4035320072386</v>
       </c>
       <c r="U12" t="n">
-        <v>151.0134322510953</v>
+        <v>224.5922314757807</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23402,7 +23402,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>100.6781615732192</v>
       </c>
       <c r="Y12" t="n">
         <v>203.671151418586</v>
@@ -23436,31 +23436,31 @@
         <v>154.2758429691555</v>
       </c>
       <c r="I13" t="n">
-        <v>128.8699765892947</v>
+        <v>128.8699765892946</v>
       </c>
       <c r="J13" t="n">
-        <v>65.30831990931706</v>
+        <v>65.30831990931702</v>
       </c>
       <c r="K13" t="n">
-        <v>29.63438159546409</v>
+        <v>29.63438159546402</v>
       </c>
       <c r="L13" t="n">
-        <v>8.469126126500512</v>
+        <v>8.469126126500427</v>
       </c>
       <c r="M13" t="n">
-        <v>3.60954925085203</v>
+        <v>5.720590951568141</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>18.01583551180478</v>
+        <v>18.0158355118047</v>
       </c>
       <c r="P13" t="n">
-        <v>34.18881300212642</v>
+        <v>34.18881300212635</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.41610083692865</v>
+        <v>78.41610083692861</v>
       </c>
       <c r="R13" t="n">
         <v>136.1786723828092</v>
@@ -23481,7 +23481,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>224.029318231593</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>292.3039313459389</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
@@ -23506,19 +23506,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>335.8073342252196</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>309.2262768819862</v>
+        <v>413.0097449172449</v>
       </c>
       <c r="H14" t="n">
-        <v>215.4651192946451</v>
+        <v>319.2485873299038</v>
       </c>
       <c r="I14" t="n">
-        <v>30.3106875237558</v>
+        <v>134.0941555590144</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>19.92594939013449</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.50659155676669</v>
+        <v>17.50659155676658</v>
       </c>
       <c r="R14" t="n">
-        <v>94.29863122826653</v>
+        <v>94.29863122826644</v>
       </c>
       <c r="S14" t="n">
         <v>163.8215473854591</v>
@@ -23551,7 +23551,7 @@
         <v>214.8885400163898</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3301619376175</v>
+        <v>147.5466939023585</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23560,10 +23560,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
-        <v>370.8615991311694</v>
+        <v>267.0781310959104</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>282.9036037159768</v>
       </c>
     </row>
     <row r="15">
@@ -23594,10 +23594,10 @@
         <v>100.9285027016016</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>63.04612765659866</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>30.40048701404996</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,19 +23624,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>46.84184055932779</v>
+        <v>46.84184055932744</v>
       </c>
       <c r="T15" t="n">
-        <v>90.62006397197993</v>
+        <v>194.4035320072386</v>
       </c>
       <c r="U15" t="n">
-        <v>214.0595599076939</v>
+        <v>120.8087634405217</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>231.7129128361779</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>146.205878714741</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23673,31 +23673,31 @@
         <v>154.2758429691555</v>
       </c>
       <c r="I16" t="n">
-        <v>128.8699765892947</v>
+        <v>128.8699765892946</v>
       </c>
       <c r="J16" t="n">
-        <v>65.30831990931705</v>
+        <v>65.30831990931702</v>
       </c>
       <c r="K16" t="n">
-        <v>29.63438159546408</v>
+        <v>29.63438159546402</v>
       </c>
       <c r="L16" t="n">
-        <v>8.469126126500498</v>
+        <v>8.469126126500427</v>
       </c>
       <c r="M16" t="n">
-        <v>3.609549250852018</v>
+        <v>5.720590951568141</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>18.01583551180477</v>
+        <v>18.0158355118047</v>
       </c>
       <c r="P16" t="n">
-        <v>34.18881300212641</v>
+        <v>34.18881300212635</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.41610083692865</v>
+        <v>78.41610083692861</v>
       </c>
       <c r="R16" t="n">
         <v>136.1786723828092</v>
@@ -23715,7 +23715,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>283.9815351866993</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23743,19 +23743,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8073342252196</v>
+        <v>303.5103954452817</v>
       </c>
       <c r="G17" t="n">
-        <v>309.2262768819862</v>
+        <v>309.2262768819858</v>
       </c>
       <c r="H17" t="n">
-        <v>215.4651192946451</v>
+        <v>319.2485873299038</v>
       </c>
       <c r="I17" t="n">
-        <v>30.31068752375579</v>
+        <v>134.0941555590144</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>19.92594939013446</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>17.50659155676669</v>
+        <v>17.50659155676655</v>
       </c>
       <c r="R17" t="n">
-        <v>94.29863122826653</v>
+        <v>94.29863122826643</v>
       </c>
       <c r="S17" t="n">
-        <v>163.8215473854591</v>
+        <v>60.03807935020001</v>
       </c>
       <c r="T17" t="n">
         <v>214.8885400163898</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3301619376175</v>
+        <v>159.9176832921614</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23816,25 +23816,25 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>42.32895553938647</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>39.7227640482902</v>
       </c>
       <c r="G18" t="n">
         <v>135.0360372154505</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.9285027016016</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>62.85030945312141</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>30.40048701404994</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,10 +23861,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>46.84184055932779</v>
+        <v>150.6253085945865</v>
       </c>
       <c r="T18" t="n">
-        <v>181.0158951054948</v>
+        <v>194.4035320072386</v>
       </c>
       <c r="U18" t="n">
         <v>224.5922314757807</v>
@@ -23873,7 +23873,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>146.2058787147409</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23901,7 +23901,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>144.0479797090882</v>
       </c>
       <c r="G19" t="n">
         <v>167.0619762569243</v>
@@ -23910,37 +23910,37 @@
         <v>154.2758429691555</v>
       </c>
       <c r="I19" t="n">
-        <v>128.8699765892947</v>
+        <v>128.8699765892946</v>
       </c>
       <c r="J19" t="n">
-        <v>65.30831990931705</v>
+        <v>65.30831990931701</v>
       </c>
       <c r="K19" t="n">
-        <v>29.63438159546408</v>
+        <v>29.63438159546401</v>
       </c>
       <c r="L19" t="n">
-        <v>8.469126126500498</v>
+        <v>8.469126126500413</v>
       </c>
       <c r="M19" t="n">
-        <v>5.720590951568227</v>
+        <v>5.720590951568113</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>18.01583551180477</v>
+        <v>18.01583551180468</v>
       </c>
       <c r="P19" t="n">
-        <v>34.18881300212641</v>
+        <v>34.18881300212634</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.41610083692865</v>
+        <v>78.41610083692859</v>
       </c>
       <c r="R19" t="n">
         <v>136.1786723828092</v>
       </c>
       <c r="S19" t="n">
-        <v>205.8233334925851</v>
+        <v>207.9343751933013</v>
       </c>
       <c r="T19" t="n">
         <v>224.7963027515405</v>
@@ -23983,16 +23983,16 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.0097449172449</v>
+        <v>309.2262768819858</v>
       </c>
       <c r="H20" t="n">
         <v>319.2485873299038</v>
       </c>
       <c r="I20" t="n">
-        <v>33.1968401065665</v>
+        <v>30.31068752375535</v>
       </c>
       <c r="J20" t="n">
-        <v>19.92594939013458</v>
+        <v>19.92594939013446</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>17.50659155676669</v>
+        <v>17.50659155676655</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>94.29863122826643</v>
       </c>
       <c r="S20" t="n">
         <v>163.8215473854591</v>
       </c>
       <c r="T20" t="n">
-        <v>111.1050719811311</v>
+        <v>111.1050719811307</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3301619376175</v>
+        <v>159.9176832921614</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24037,7 +24037,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>282.9036037159771</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.1763074068681</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -24062,16 +24062,16 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>31.25256918019183</v>
+        <v>135.0360372154505</v>
       </c>
       <c r="H21" t="n">
         <v>100.9285027016016</v>
       </c>
       <c r="I21" t="n">
-        <v>63.04612765659869</v>
+        <v>63.04612765659866</v>
       </c>
       <c r="J21" t="n">
-        <v>30.40048701405001</v>
+        <v>30.40048701404994</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,31 +24092,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>10.47046355369869</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.74619688828022</v>
       </c>
       <c r="S21" t="n">
         <v>150.6253085945865</v>
       </c>
       <c r="T21" t="n">
-        <v>90.62006397197993</v>
+        <v>194.4035320072386</v>
       </c>
       <c r="U21" t="n">
-        <v>224.5922314757807</v>
+        <v>120.8087634405216</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>128.125263004396</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>100.6781615732192</v>
       </c>
       <c r="Y21" t="n">
-        <v>99.88768338332731</v>
+        <v>112.2586727731298</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>177.9726497899675</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24147,34 +24147,34 @@
         <v>154.2758429691555</v>
       </c>
       <c r="I22" t="n">
-        <v>128.8699765892947</v>
+        <v>128.8699765892946</v>
       </c>
       <c r="J22" t="n">
-        <v>65.30831990931705</v>
+        <v>65.30831990931701</v>
       </c>
       <c r="K22" t="n">
-        <v>29.63438159546408</v>
+        <v>29.63438159546401</v>
       </c>
       <c r="L22" t="n">
-        <v>8.469126126500498</v>
+        <v>8.469126126500413</v>
       </c>
       <c r="M22" t="n">
-        <v>5.720590951568227</v>
+        <v>5.720590951568113</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>18.01583551180477</v>
+        <v>18.01583551180468</v>
       </c>
       <c r="P22" t="n">
-        <v>34.18881300212641</v>
+        <v>34.18881300212634</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.41610083692865</v>
+        <v>78.41610083692859</v>
       </c>
       <c r="R22" t="n">
-        <v>134.067630682093</v>
+        <v>136.1786723828092</v>
       </c>
       <c r="S22" t="n">
         <v>207.9343751933013</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.4065663695945</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24223,13 +24223,13 @@
         <v>412.9885830624499</v>
       </c>
       <c r="H23" t="n">
-        <v>222.7517532224027</v>
+        <v>319.0318634844846</v>
       </c>
       <c r="I23" t="n">
-        <v>133.2783131520305</v>
+        <v>133.2783131520306</v>
       </c>
       <c r="J23" t="n">
-        <v>18.12986341672806</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,31 +24250,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.22134930977393</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>92.96932286700056</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>54.0294779975177</v>
+        <v>163.3393216193182</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7959039970247</v>
+        <v>105.4860603752243</v>
       </c>
       <c r="U23" t="n">
         <v>251.3284689892339</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>219.2233779007189</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>291.5921808407898</v>
       </c>
       <c r="Y23" t="n">
-        <v>277.3772281294353</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24296,10 +24296,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>47.22612182146753</v>
       </c>
       <c r="G24" t="n">
-        <v>135.0247146249345</v>
+        <v>25.71487100313406</v>
       </c>
       <c r="H24" t="n">
         <v>100.8191503142495</v>
@@ -24308,7 +24308,7 @@
         <v>62.65629285155154</v>
       </c>
       <c r="J24" t="n">
-        <v>29.33075051270981</v>
+        <v>29.33075051270983</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.025144806425914</v>
+        <v>9.025144806425928</v>
       </c>
       <c r="R24" t="n">
         <v>80.04320306659272</v>
@@ -24338,16 +24338,16 @@
         <v>150.4149964417999</v>
       </c>
       <c r="T24" t="n">
-        <v>98.07778375969963</v>
+        <v>194.3578940217815</v>
       </c>
       <c r="U24" t="n">
-        <v>115.2816429467094</v>
+        <v>224.5914865685099</v>
       </c>
       <c r="V24" t="n">
-        <v>122.5988874178546</v>
+        <v>122.5988874178547</v>
       </c>
       <c r="W24" t="n">
-        <v>140.6795031281995</v>
+        <v>140.6795031281996</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
@@ -24375,25 +24375,25 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>142.624278358221</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>167.0524837773861</v>
       </c>
       <c r="H25" t="n">
-        <v>154.1914461965343</v>
+        <v>150.6567031449509</v>
       </c>
       <c r="I25" t="n">
         <v>128.5845118410015</v>
       </c>
       <c r="J25" t="n">
-        <v>64.63720160596887</v>
+        <v>64.63720160596888</v>
       </c>
       <c r="K25" t="n">
-        <v>28.53152806366651</v>
+        <v>28.53152806366653</v>
       </c>
       <c r="L25" t="n">
-        <v>7.057853304981137</v>
+        <v>7.057853304981165</v>
       </c>
       <c r="M25" t="n">
         <v>4.232601636326791</v>
@@ -24402,13 +24402,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>16.67411667671958</v>
+        <v>16.67411667671959</v>
       </c>
       <c r="P25" t="n">
-        <v>33.04074074961977</v>
+        <v>33.04074074961979</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.62123511851023</v>
+        <v>77.62123511851024</v>
       </c>
       <c r="R25" t="n">
         <v>135.751855984666</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.4065663695946</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>257.6752520571422</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>247.2948891327979</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
@@ -24463,10 +24463,10 @@
         <v>319.0318634844846</v>
       </c>
       <c r="I26" t="n">
-        <v>133.2783131520306</v>
+        <v>23.96846953023011</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>18.12986341672809</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.22134930977396</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>92.96932286700057</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>163.3393216193182</v>
@@ -24499,10 +24499,10 @@
         <v>214.7959039970247</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3284689892339</v>
+        <v>142.0186253674335</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>231.1339398154118</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>308.5368249058821</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -24530,16 +24530,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>60.28777494396711</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>34.19638846174887</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>25.71487100313409</v>
+        <v>38.74460436285275</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>100.8191503142495</v>
       </c>
       <c r="I27" t="n">
         <v>62.65629285155154</v>
@@ -24566,22 +24566,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>9.025144806425928</v>
       </c>
       <c r="R27" t="n">
         <v>80.04320306659272</v>
       </c>
       <c r="S27" t="n">
-        <v>150.4149964417999</v>
+        <v>41.10515281999947</v>
       </c>
       <c r="T27" t="n">
         <v>194.3578940217815</v>
       </c>
       <c r="U27" t="n">
-        <v>224.5914865685099</v>
+        <v>115.2816429467095</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>122.5988874178547</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -24633,7 +24633,7 @@
         <v>7.057853304981165</v>
       </c>
       <c r="M28" t="n">
-        <v>0.6978585847433325</v>
+        <v>4.232601636326791</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>207.7689471635317</v>
       </c>
       <c r="T28" t="n">
-        <v>224.755743975332</v>
+        <v>221.2210009237486</v>
       </c>
       <c r="U28" t="n">
         <v>286.0066101100066</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>380.4056225963138</v>
       </c>
       <c r="C29" t="n">
-        <v>269.5858139718349</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
@@ -24724,31 +24724,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>15.22134930977396</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>163.3393216193182</v>
+        <v>54.02947799751779</v>
       </c>
       <c r="T29" t="n">
         <v>214.7959039970247</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3284689892339</v>
+        <v>142.0186253674335</v>
       </c>
       <c r="V29" t="n">
-        <v>219.2233779007189</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>261.5517555093689</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>277.3772281294354</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>56.06228198854437</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -24770,10 +24770,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>136.2944696944862</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>25.71487100313406</v>
+        <v>38.74460436285275</v>
       </c>
       <c r="H30" t="n">
         <v>100.8191503142495</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.025144806425928</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.04320306659272</v>
       </c>
       <c r="S30" t="n">
         <v>150.4149964417999</v>
@@ -24815,10 +24815,10 @@
         <v>194.3578940217815</v>
       </c>
       <c r="U30" t="n">
-        <v>224.5914865685099</v>
+        <v>115.2816429467095</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>122.5988874178547</v>
       </c>
       <c r="W30" t="n">
         <v>140.6795031281996</v>
@@ -24849,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>142.6242783582211</v>
       </c>
       <c r="G31" t="n">
         <v>167.0524837773861</v>
@@ -24888,7 +24888,7 @@
         <v>135.751855984666</v>
       </c>
       <c r="S31" t="n">
-        <v>204.2342041119483</v>
+        <v>207.7689471635317</v>
       </c>
       <c r="T31" t="n">
         <v>224.755743975332</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304.4469917010156</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24925,22 +24925,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
-        <v>383.1180357552875</v>
+        <v>273.808192133487</v>
       </c>
       <c r="F32" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>303.6787394406494</v>
+        <v>412.9885830624499</v>
       </c>
       <c r="H32" t="n">
-        <v>209.7220198626841</v>
+        <v>319.0318634844846</v>
       </c>
       <c r="I32" t="n">
         <v>133.2783131520306</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>18.12986341672809</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>11.91056191469272</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>241.2202733787541</v>
       </c>
       <c r="X32" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>277.3772281294354</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>62.65629285155154</v>
       </c>
       <c r="J33" t="n">
-        <v>22.11898812364667</v>
+        <v>29.33075051270983</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,28 +25040,28 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>9.025144806425928</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.04320306659272</v>
       </c>
       <c r="S33" t="n">
-        <v>41.10515281999946</v>
+        <v>150.4149964417999</v>
       </c>
       <c r="T33" t="n">
-        <v>85.04805039998107</v>
+        <v>194.3578940217815</v>
       </c>
       <c r="U33" t="n">
         <v>115.2816429467095</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>122.5988874178547</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>140.6795031281996</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>108.1815193463965</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25086,7 +25086,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>142.6242783582211</v>
       </c>
       <c r="G34" t="n">
         <v>167.0524837773861</v>
@@ -25128,7 +25128,7 @@
         <v>207.7689471635317</v>
       </c>
       <c r="T34" t="n">
-        <v>221.2210009237486</v>
+        <v>224.755743975332</v>
       </c>
       <c r="U34" t="n">
         <v>286.0066101100066</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>383.716409991395</v>
+        <v>274.4065663695946</v>
       </c>
       <c r="C35" t="n">
         <v>366.9850956789426</v>
@@ -25165,19 +25165,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>297.9840198587404</v>
+        <v>311.0137532184591</v>
       </c>
       <c r="G35" t="n">
-        <v>303.6787394406495</v>
+        <v>412.9885830624499</v>
       </c>
       <c r="H35" t="n">
-        <v>256.1029659489049</v>
+        <v>319.0318634844846</v>
       </c>
       <c r="I35" t="n">
-        <v>23.96846953023011</v>
+        <v>133.2783131520306</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>18.12986341672809</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>15.22134930977396</v>
       </c>
       <c r="R35" t="n">
         <v>92.96932286700057</v>
@@ -25207,7 +25207,7 @@
         <v>163.3393216193182</v>
       </c>
       <c r="T35" t="n">
-        <v>214.7959039970247</v>
+        <v>105.4860603752243</v>
       </c>
       <c r="U35" t="n">
         <v>251.3284689892339</v>
@@ -25219,7 +25219,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
-        <v>370.8615991311694</v>
+        <v>261.5517555093689</v>
       </c>
       <c r="Y35" t="n">
         <v>386.6870717512358</v>
@@ -25244,10 +25244,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
-        <v>47.22612182146753</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>25.71487100313406</v>
+        <v>38.74460436285275</v>
       </c>
       <c r="H36" t="n">
         <v>100.8191503142495</v>
@@ -25289,16 +25289,16 @@
         <v>194.3578940217815</v>
       </c>
       <c r="U36" t="n">
-        <v>224.5914865685099</v>
+        <v>115.2816429467095</v>
       </c>
       <c r="V36" t="n">
-        <v>231.9087310396551</v>
+        <v>122.5988874178547</v>
       </c>
       <c r="W36" t="n">
         <v>140.6795031281996</v>
       </c>
       <c r="X36" t="n">
-        <v>95.15178598667781</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
         <v>203.671151418586</v>
@@ -25320,7 +25320,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>143.4398811216157</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25374,7 +25374,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>282.5578338358321</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
@@ -25402,13 +25402,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>297.9840198587404</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>303.6787394406495</v>
       </c>
       <c r="H38" t="n">
-        <v>221.6325817773769</v>
+        <v>319.0318634844846</v>
       </c>
       <c r="I38" t="n">
         <v>133.2783131520306</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>15.22134930977396</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>92.96932286700057</v>
       </c>
       <c r="S38" t="n">
         <v>163.3393216193182</v>
       </c>
       <c r="T38" t="n">
-        <v>214.7959039970247</v>
+        <v>105.4860603752243</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3284689892339</v>
+        <v>155.0483587271521</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>219.2233779007189</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
@@ -25475,16 +25475,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D39" t="n">
-        <v>49.83231331256377</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>46.7235900853734</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>34.19638846174887</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>25.71487100313409</v>
+        <v>135.0247146249345</v>
       </c>
       <c r="H39" t="n">
         <v>100.8191503142495</v>
@@ -25526,16 +25526,16 @@
         <v>194.3578940217815</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5914865685099</v>
+        <v>128.3113763064281</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>122.5988874178547</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>140.6795031281996</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>95.15178598667781</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -25563,7 +25563,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0524837773861</v>
+        <v>163.5177407258027</v>
       </c>
       <c r="H40" t="n">
         <v>154.1914461965343</v>
@@ -25611,7 +25611,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>282.5578338358321</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,7 +25630,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>257.6752520571422</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -25642,10 +25642,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9885830624499</v>
+        <v>316.7084728003681</v>
       </c>
       <c r="H41" t="n">
-        <v>315.7210760894034</v>
+        <v>319.0318634844846</v>
       </c>
       <c r="I41" t="n">
         <v>133.2783131520306</v>
@@ -25675,22 +25675,22 @@
         <v>15.22134930977396</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>92.96932286700057</v>
       </c>
       <c r="S41" t="n">
-        <v>54.02947799751779</v>
+        <v>163.3393216193182</v>
       </c>
       <c r="T41" t="n">
-        <v>105.4860603752243</v>
+        <v>214.7959039970247</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3284689892339</v>
+        <v>142.0186253674335</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>219.2233779007189</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>241.2202733787541</v>
       </c>
       <c r="X41" t="n">
         <v>370.8615991311694</v>
@@ -25712,16 +25712,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>36.80257995284511</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>34.19638846174884</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>25.71487100313406</v>
+        <v>135.0247146249345</v>
       </c>
       <c r="H42" t="n">
         <v>100.8191503142495</v>
@@ -25730,7 +25730,7 @@
         <v>62.65629285155154</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.33075051270983</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.04320306659272</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>150.4149964417999</v>
       </c>
       <c r="T42" t="n">
-        <v>194.3578940217815</v>
+        <v>85.04805039998108</v>
       </c>
       <c r="U42" t="n">
-        <v>166.6672716255639</v>
+        <v>115.2816429467095</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>140.6795031281996</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>197.2498672194151</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -25876,7 +25876,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>297.9840198587404</v>
+        <v>311.0137532184591</v>
       </c>
       <c r="G44" t="n">
         <v>303.6787394406495</v>
@@ -25885,7 +25885,7 @@
         <v>319.0318634844846</v>
       </c>
       <c r="I44" t="n">
-        <v>129.9675257569493</v>
+        <v>133.2783131520306</v>
       </c>
       <c r="J44" t="n">
         <v>18.12986341672809</v>
@@ -25912,13 +25912,13 @@
         <v>15.22134930977396</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>92.96932286700057</v>
       </c>
       <c r="S44" t="n">
         <v>54.02947799751779</v>
       </c>
       <c r="T44" t="n">
-        <v>214.7959039970247</v>
+        <v>105.4860603752243</v>
       </c>
       <c r="U44" t="n">
         <v>251.3284689892339</v>
@@ -25949,16 +25949,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>36.80257995284511</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>46.72359008537337</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>34.19638846174884</v>
       </c>
       <c r="G45" t="n">
-        <v>135.0247146249345</v>
+        <v>25.71487100313406</v>
       </c>
       <c r="H45" t="n">
         <v>100.8191503142495</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.025144806425928</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>80.04320306659272</v>
@@ -25997,13 +25997,13 @@
         <v>150.4149964417999</v>
       </c>
       <c r="T45" t="n">
-        <v>194.3578940217815</v>
+        <v>85.04805039998108</v>
       </c>
       <c r="U45" t="n">
         <v>224.5914865685099</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>144.6537655839993</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -26012,7 +26012,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>107.3910411565042</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>163.5177407258027</v>
+        <v>167.0524837773861</v>
       </c>
       <c r="H46" t="n">
         <v>154.1914461965343</v>
@@ -26076,7 +26076,7 @@
         <v>207.7689471635317</v>
       </c>
       <c r="T46" t="n">
-        <v>224.755743975332</v>
+        <v>221.2210009237486</v>
       </c>
       <c r="U46" t="n">
         <v>286.0066101100066</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365133.5798266977</v>
+        <v>365133.5798266978</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365133.5798266977</v>
+        <v>365133.5798266979</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365133.5798266976</v>
+        <v>365133.5798266979</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365133.5798266978</v>
+        <v>365133.5798266979</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>369897.4833477053</v>
+        <v>369897.4833477054</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>369897.4833477054</v>
+        <v>369897.4833477055</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>369897.4833477053</v>
+        <v>369897.4833477054</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>369897.4833477053</v>
+        <v>369897.4833477054</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>79010.18160062631</v>
       </c>
       <c r="C2" t="n">
-        <v>79010.18160062633</v>
+        <v>79010.18160062631</v>
       </c>
       <c r="D2" t="n">
-        <v>79010.18160062633</v>
+        <v>79010.18160062631</v>
       </c>
       <c r="E2" t="n">
-        <v>117118.31805762</v>
+        <v>117118.3180576201</v>
       </c>
       <c r="F2" t="n">
-        <v>117118.31805762</v>
+        <v>117118.3180576201</v>
       </c>
       <c r="G2" t="n">
-        <v>117118.31805762</v>
+        <v>117118.3180576201</v>
       </c>
       <c r="H2" t="n">
-        <v>117118.31805762</v>
+        <v>117118.3180576201</v>
       </c>
       <c r="I2" t="n">
         <v>118646.3625832262</v>
       </c>
       <c r="J2" t="n">
-        <v>118646.3625832261</v>
+        <v>118646.3625832262</v>
       </c>
       <c r="K2" t="n">
-        <v>118646.3625832261</v>
+        <v>118646.3625832262</v>
       </c>
       <c r="L2" t="n">
         <v>118646.3625832262</v>
       </c>
       <c r="M2" t="n">
-        <v>118646.3625832261</v>
+        <v>118646.3625832262</v>
       </c>
       <c r="N2" t="n">
         <v>118646.3625832261</v>
       </c>
       <c r="O2" t="n">
-        <v>118646.3625832261</v>
+        <v>118646.3625832262</v>
       </c>
       <c r="P2" t="n">
-        <v>118646.3625832261</v>
+        <v>118646.3625832262</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>149186.6468278695</v>
+        <v>149186.6468278698</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5432.058624823932</v>
+        <v>5432.058624823509</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25863.25536825861</v>
+        <v>25863.25536825867</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75.27967048740045</v>
+        <v>75.27967048740072</v>
       </c>
       <c r="F4" t="n">
-        <v>75.27967048740048</v>
+        <v>75.27967048740072</v>
       </c>
       <c r="G4" t="n">
-        <v>75.27967048740048</v>
+        <v>75.27967048740075</v>
       </c>
       <c r="H4" t="n">
-        <v>75.27967048740048</v>
+        <v>75.27967048740075</v>
       </c>
       <c r="I4" t="n">
-        <v>79.33640962777926</v>
+        <v>79.3364096277792</v>
       </c>
       <c r="J4" t="n">
         <v>79.3364096277792</v>
@@ -26447,7 +26447,7 @@
         <v>79.3364096277792</v>
       </c>
       <c r="L4" t="n">
-        <v>79.33640962777922</v>
+        <v>79.3364096277792</v>
       </c>
       <c r="M4" t="n">
         <v>79.3364096277792</v>
@@ -26459,7 +26459,7 @@
         <v>79.3364096277792</v>
       </c>
       <c r="P4" t="n">
-        <v>79.3364096277792</v>
+        <v>79.33640962777923</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>40425.3999991759</v>
       </c>
       <c r="E5" t="n">
-        <v>16315.11970017834</v>
+        <v>16315.11970017837</v>
       </c>
       <c r="F5" t="n">
-        <v>16315.11970017835</v>
+        <v>16315.11970017837</v>
       </c>
       <c r="G5" t="n">
-        <v>16315.11970017835</v>
+        <v>16315.11970017838</v>
       </c>
       <c r="H5" t="n">
-        <v>16315.11970017835</v>
+        <v>16315.11970017838</v>
       </c>
       <c r="I5" t="n">
         <v>16765.87878392963</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-261894.5051235901</v>
+        <v>-277594.8325977502</v>
       </c>
       <c r="C6" t="n">
-        <v>38584.78160145043</v>
+        <v>22884.45412729032</v>
       </c>
       <c r="D6" t="n">
-        <v>38584.78160145043</v>
+        <v>22884.45412729032</v>
       </c>
       <c r="E6" t="n">
-        <v>-48458.72814091521</v>
+        <v>-61917.40052937006</v>
       </c>
       <c r="F6" t="n">
-        <v>100727.9186869543</v>
+        <v>87269.24629849978</v>
       </c>
       <c r="G6" t="n">
-        <v>100727.9186869543</v>
+        <v>87269.24629849974</v>
       </c>
       <c r="H6" t="n">
-        <v>100727.9186869543</v>
+        <v>87269.24629849975</v>
       </c>
       <c r="I6" t="n">
-        <v>96369.08876484484</v>
+        <v>83000.30134848515</v>
       </c>
       <c r="J6" t="n">
-        <v>101801.1473896687</v>
+        <v>88432.35997330867</v>
       </c>
       <c r="K6" t="n">
-        <v>101801.1473896687</v>
+        <v>88432.35997330866</v>
       </c>
       <c r="L6" t="n">
-        <v>101801.1473896688</v>
+        <v>88432.35997330866</v>
       </c>
       <c r="M6" t="n">
-        <v>75937.89202141008</v>
+        <v>62569.10460504997</v>
       </c>
       <c r="N6" t="n">
-        <v>101801.1473896687</v>
+        <v>88432.35997330863</v>
       </c>
       <c r="O6" t="n">
-        <v>101801.1473896687</v>
+        <v>88432.35997330866</v>
       </c>
       <c r="P6" t="n">
-        <v>101801.1473896687</v>
+        <v>88432.35997330864</v>
       </c>
     </row>
   </sheetData>
@@ -26746,19 +26746,19 @@
         <v>311.8256880355916</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9488460382851</v>
+        <v>458.9488460382854</v>
       </c>
       <c r="F3" t="n">
-        <v>458.9488460382851</v>
+        <v>458.9488460382854</v>
       </c>
       <c r="G3" t="n">
-        <v>458.9488460382851</v>
+        <v>458.9488460382855</v>
       </c>
       <c r="H3" t="n">
-        <v>458.9488460382851</v>
+        <v>458.9488460382855</v>
       </c>
       <c r="I3" t="n">
-        <v>464.2128574185396</v>
+        <v>464.2128574185395</v>
       </c>
       <c r="J3" t="n">
         <v>464.2128574185395</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="F4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="G4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="H4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="I4" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="J4" t="n">
-        <v>109.3098436218004</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="K4" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="L4" t="n">
-        <v>109.3098436218005</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="M4" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="N4" t="n">
-        <v>109.3098436218004</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="O4" t="n">
         <v>109.3098436218005</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>147.1231580026935</v>
+        <v>147.1231580026939</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.264011380254431</v>
+        <v>5.264011380254033</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>5.526375586541832</v>
+        <v>5.526375586541363</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352589</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31044,7 +31044,7 @@
         <v>1.253570605168206</v>
       </c>
       <c r="H2" t="n">
-        <v>12.83812996017889</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I2" t="n">
         <v>48.32828075574732</v>
@@ -31053,7 +31053,7 @@
         <v>106.3952381503951</v>
       </c>
       <c r="K2" t="n">
-        <v>159.4588818671653</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L2" t="n">
         <v>197.8228432750819</v>
@@ -31074,7 +31074,7 @@
         <v>135.3715226888582</v>
       </c>
       <c r="R2" t="n">
-        <v>78.74460452689742</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S2" t="n">
         <v>28.56574016527053</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H3" t="n">
         <v>6.477737406173327</v>
@@ -31202,7 +31202,7 @@
         <v>0.5623086177690995</v>
       </c>
       <c r="H4" t="n">
-        <v>4.999434801619816</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I4" t="n">
         <v>16.91015370527438</v>
@@ -31241,7 +31241,7 @@
         <v>2.402591366831606</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>1.253570605168206</v>
       </c>
       <c r="H5" t="n">
-        <v>12.8381299601789</v>
+        <v>12.83812996017889</v>
       </c>
       <c r="I5" t="n">
         <v>48.32828075574732</v>
@@ -31290,7 +31290,7 @@
         <v>106.3952381503951</v>
       </c>
       <c r="K5" t="n">
-        <v>159.4588818671654</v>
+        <v>159.4588818671653</v>
       </c>
       <c r="L5" t="n">
         <v>197.8228432750819</v>
@@ -31311,7 +31311,7 @@
         <v>135.3715226888582</v>
       </c>
       <c r="R5" t="n">
-        <v>78.7446045268974</v>
+        <v>78.74460452689742</v>
       </c>
       <c r="S5" t="n">
         <v>28.56574016527053</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6707194044539139</v>
       </c>
       <c r="H6" t="n">
         <v>6.477737406173327</v>
@@ -31439,7 +31439,7 @@
         <v>0.5623086177690995</v>
       </c>
       <c r="H7" t="n">
-        <v>4.999434801619815</v>
+        <v>4.999434801619816</v>
       </c>
       <c r="I7" t="n">
         <v>16.91015370527438</v>
@@ -31478,7 +31478,7 @@
         <v>2.402591366831606</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03067137915104183</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,7 +31518,7 @@
         <v>1.253570605168206</v>
       </c>
       <c r="H8" t="n">
-        <v>12.8381299601789</v>
+        <v>12.83812996017889</v>
       </c>
       <c r="I8" t="n">
         <v>48.32828075574732</v>
@@ -31527,7 +31527,7 @@
         <v>106.3952381503951</v>
       </c>
       <c r="K8" t="n">
-        <v>159.4588818671654</v>
+        <v>159.4588818671653</v>
       </c>
       <c r="L8" t="n">
         <v>197.8228432750819</v>
@@ -31548,7 +31548,7 @@
         <v>135.3715226888582</v>
       </c>
       <c r="R8" t="n">
-        <v>78.7446045268974</v>
+        <v>78.74460452689742</v>
       </c>
       <c r="S8" t="n">
         <v>28.56574016527053</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6707194044539139</v>
       </c>
       <c r="H9" t="n">
         <v>6.477737406173327</v>
@@ -31676,7 +31676,7 @@
         <v>0.5623086177690995</v>
       </c>
       <c r="H10" t="n">
-        <v>4.999434801619815</v>
+        <v>4.999434801619816</v>
       </c>
       <c r="I10" t="n">
         <v>16.91015370527438</v>
@@ -31715,7 +31715,7 @@
         <v>2.402591366831606</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.03067137915104183</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.845020486586069</v>
+        <v>1.845020486586071</v>
       </c>
       <c r="H11" t="n">
-        <v>18.89531605824959</v>
+        <v>18.8953160582496</v>
       </c>
       <c r="I11" t="n">
-        <v>71.1301523091095</v>
+        <v>71.13015230910956</v>
       </c>
       <c r="J11" t="n">
-        <v>156.5938075233845</v>
+        <v>156.5938075233846</v>
       </c>
       <c r="K11" t="n">
-        <v>234.6935247205729</v>
+        <v>234.6935247205731</v>
       </c>
       <c r="L11" t="n">
-        <v>291.1580704369314</v>
+        <v>291.1580704369316</v>
       </c>
       <c r="M11" t="n">
-        <v>323.9694535152564</v>
+        <v>323.9694535152566</v>
       </c>
       <c r="N11" t="n">
-        <v>327.4612050419348</v>
+        <v>327.4612050419352</v>
       </c>
       <c r="O11" t="n">
-        <v>310.8651955092788</v>
+        <v>310.865195509279</v>
       </c>
       <c r="P11" t="n">
-        <v>265.3162522466852</v>
+        <v>265.3162522466854</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.2414560708215</v>
+        <v>199.2414560708217</v>
       </c>
       <c r="R11" t="n">
-        <v>115.8972681405123</v>
+        <v>115.8972681405124</v>
       </c>
       <c r="S11" t="n">
-        <v>42.04340433808009</v>
+        <v>42.04340433808012</v>
       </c>
       <c r="T11" t="n">
-        <v>8.076577180030522</v>
+        <v>8.076577180030528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1476016389268855</v>
+        <v>0.1476016389268856</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.987172989591783</v>
+        <v>0.9871729895917838</v>
       </c>
       <c r="H12" t="n">
-        <v>9.534012820531169</v>
+        <v>9.534012820531176</v>
       </c>
       <c r="I12" t="n">
-        <v>33.98819284340131</v>
+        <v>33.98819284340133</v>
       </c>
       <c r="J12" t="n">
-        <v>93.26619898595</v>
+        <v>93.26619898595007</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4067892885995</v>
+        <v>159.4067892885996</v>
       </c>
       <c r="L12" t="n">
-        <v>159.7288737235146</v>
+        <v>214.3421002181634</v>
       </c>
       <c r="M12" t="n">
-        <v>242.3641511092266</v>
+        <v>242.3641511092269</v>
       </c>
       <c r="N12" t="n">
-        <v>231.8416373165087</v>
+        <v>231.841637316509</v>
       </c>
       <c r="O12" t="n">
-        <v>234.8735665192344</v>
+        <v>234.8735665192346</v>
       </c>
       <c r="P12" t="n">
-        <v>188.5067439510836</v>
+        <v>133.8935174564351</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.0117661801722</v>
+        <v>126.0117661801723</v>
       </c>
       <c r="R12" t="n">
-        <v>61.29131947658458</v>
+        <v>61.29131947658463</v>
       </c>
       <c r="S12" t="n">
-        <v>18.33630531105789</v>
+        <v>18.3363053110579</v>
       </c>
       <c r="T12" t="n">
-        <v>3.978999901030036</v>
+        <v>3.978999901030039</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06494559142051207</v>
+        <v>0.06494559142051211</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8276126731837926</v>
+        <v>0.8276126731837933</v>
       </c>
       <c r="H13" t="n">
-        <v>7.358229039761362</v>
+        <v>7.358229039761367</v>
       </c>
       <c r="I13" t="n">
-        <v>24.88857020810897</v>
+        <v>24.88857020810899</v>
       </c>
       <c r="J13" t="n">
-        <v>58.51221599409413</v>
+        <v>58.51221599409418</v>
       </c>
       <c r="K13" t="n">
-        <v>96.15354512080789</v>
+        <v>96.15354512080796</v>
       </c>
       <c r="L13" t="n">
-        <v>123.0434332477068</v>
+        <v>123.0434332477069</v>
       </c>
       <c r="M13" t="n">
-        <v>129.7320483973467</v>
+        <v>129.7320483973468</v>
       </c>
       <c r="N13" t="n">
         <v>126.6473102518436</v>
       </c>
       <c r="O13" t="n">
-        <v>116.9792894787419</v>
+        <v>116.979289478742</v>
       </c>
       <c r="P13" t="n">
-        <v>100.0959909457925</v>
+        <v>100.0959909457926</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.30127575178105</v>
+        <v>69.30127575178109</v>
       </c>
       <c r="R13" t="n">
-        <v>37.21247528697307</v>
+        <v>37.2124752869731</v>
       </c>
       <c r="S13" t="n">
-        <v>14.42303176812118</v>
+        <v>14.42303176812119</v>
       </c>
       <c r="T13" t="n">
-        <v>3.536163239967113</v>
+        <v>3.536163239967116</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04514250944638874</v>
+        <v>0.04514250944638878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84502048658607</v>
+        <v>1.845020486586071</v>
       </c>
       <c r="H14" t="n">
-        <v>18.89531605824959</v>
+        <v>18.8953160582496</v>
       </c>
       <c r="I14" t="n">
-        <v>71.1301523091095</v>
+        <v>71.13015230910956</v>
       </c>
       <c r="J14" t="n">
         <v>156.5938075233846</v>
       </c>
       <c r="K14" t="n">
-        <v>234.6935247205729</v>
+        <v>234.6935247205731</v>
       </c>
       <c r="L14" t="n">
-        <v>291.1580704369314</v>
+        <v>291.1580704369316</v>
       </c>
       <c r="M14" t="n">
-        <v>323.9694535152564</v>
+        <v>323.9694535152566</v>
       </c>
       <c r="N14" t="n">
-        <v>327.4612050419349</v>
+        <v>327.4612050419352</v>
       </c>
       <c r="O14" t="n">
-        <v>310.8651955092789</v>
+        <v>310.865195509279</v>
       </c>
       <c r="P14" t="n">
-        <v>265.3162522466852</v>
+        <v>265.3162522466854</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.2414560708216</v>
+        <v>199.2414560708217</v>
       </c>
       <c r="R14" t="n">
-        <v>115.8972681405123</v>
+        <v>115.8972681405124</v>
       </c>
       <c r="S14" t="n">
-        <v>42.0434043380801</v>
+        <v>42.04340433808012</v>
       </c>
       <c r="T14" t="n">
-        <v>8.076577180030522</v>
+        <v>8.076577180030528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1476016389268855</v>
+        <v>0.1476016389268856</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9871729895917831</v>
+        <v>0.9871729895917838</v>
       </c>
       <c r="H15" t="n">
-        <v>9.534012820531171</v>
+        <v>9.534012820531176</v>
       </c>
       <c r="I15" t="n">
-        <v>33.98819284340131</v>
+        <v>33.98819284340133</v>
       </c>
       <c r="J15" t="n">
-        <v>93.26619898595001</v>
+        <v>93.26619898595007</v>
       </c>
       <c r="K15" t="n">
-        <v>159.4067892885995</v>
+        <v>159.4067892885996</v>
       </c>
       <c r="L15" t="n">
-        <v>214.3421002181633</v>
+        <v>214.3421002181634</v>
       </c>
       <c r="M15" t="n">
-        <v>242.3641511092266</v>
+        <v>242.3641511092269</v>
       </c>
       <c r="N15" t="n">
-        <v>231.8416373165087</v>
+        <v>231.841637316509</v>
       </c>
       <c r="O15" t="n">
-        <v>180.2603400245857</v>
+        <v>234.8735665192346</v>
       </c>
       <c r="P15" t="n">
-        <v>188.5067439510836</v>
+        <v>133.8935174564351</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0117661801722</v>
+        <v>126.0117661801723</v>
       </c>
       <c r="R15" t="n">
-        <v>61.29131947658459</v>
+        <v>61.29131947658463</v>
       </c>
       <c r="S15" t="n">
-        <v>18.33630531105789</v>
+        <v>18.3363053110579</v>
       </c>
       <c r="T15" t="n">
-        <v>3.978999901030037</v>
+        <v>3.978999901030039</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06494559142051208</v>
+        <v>0.06494559142051211</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8276126731837927</v>
+        <v>0.8276126731837933</v>
       </c>
       <c r="H16" t="n">
-        <v>7.358229039761363</v>
+        <v>7.358229039761367</v>
       </c>
       <c r="I16" t="n">
-        <v>24.88857020810898</v>
+        <v>24.88857020810899</v>
       </c>
       <c r="J16" t="n">
-        <v>58.51221599409414</v>
+        <v>58.51221599409418</v>
       </c>
       <c r="K16" t="n">
-        <v>96.15354512080791</v>
+        <v>96.15354512080796</v>
       </c>
       <c r="L16" t="n">
-        <v>123.0434332477068</v>
+        <v>123.0434332477069</v>
       </c>
       <c r="M16" t="n">
-        <v>129.7320483973467</v>
+        <v>129.7320483973468</v>
       </c>
       <c r="N16" t="n">
         <v>126.6473102518436</v>
       </c>
       <c r="O16" t="n">
-        <v>116.9792894787419</v>
+        <v>116.979289478742</v>
       </c>
       <c r="P16" t="n">
-        <v>100.0959909457925</v>
+        <v>100.0959909457926</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.30127575178105</v>
+        <v>69.30127575178109</v>
       </c>
       <c r="R16" t="n">
-        <v>37.21247528697307</v>
+        <v>37.2124752869731</v>
       </c>
       <c r="S16" t="n">
-        <v>14.42303176812118</v>
+        <v>14.42303176812119</v>
       </c>
       <c r="T16" t="n">
-        <v>3.536163239967113</v>
+        <v>3.536163239967116</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04514250944638875</v>
+        <v>0.04514250944638878</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84502048658607</v>
+        <v>1.845020486586071</v>
       </c>
       <c r="H17" t="n">
-        <v>18.89531605824959</v>
+        <v>18.8953160582496</v>
       </c>
       <c r="I17" t="n">
-        <v>71.1301523091095</v>
+        <v>71.13015230910956</v>
       </c>
       <c r="J17" t="n">
-        <v>156.5938075233846</v>
+        <v>156.5938075233847</v>
       </c>
       <c r="K17" t="n">
-        <v>234.6935247205729</v>
+        <v>234.6935247205731</v>
       </c>
       <c r="L17" t="n">
-        <v>291.1580704369314</v>
+        <v>291.1580704369316</v>
       </c>
       <c r="M17" t="n">
-        <v>323.9694535152564</v>
+        <v>323.9694535152566</v>
       </c>
       <c r="N17" t="n">
-        <v>327.4612050419349</v>
+        <v>327.4612050419353</v>
       </c>
       <c r="O17" t="n">
-        <v>310.8651955092789</v>
+        <v>310.8651955092791</v>
       </c>
       <c r="P17" t="n">
-        <v>265.3162522466852</v>
+        <v>265.3162522466854</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.2414560708216</v>
+        <v>199.2414560708217</v>
       </c>
       <c r="R17" t="n">
-        <v>115.8972681405123</v>
+        <v>115.8972681405124</v>
       </c>
       <c r="S17" t="n">
-        <v>42.0434043380801</v>
+        <v>42.04340433808013</v>
       </c>
       <c r="T17" t="n">
-        <v>8.076577180030522</v>
+        <v>8.076577180030529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1476016389268855</v>
+        <v>0.1476016389268856</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9871729895917831</v>
+        <v>0.9871729895917839</v>
       </c>
       <c r="H18" t="n">
-        <v>9.534012820531171</v>
+        <v>9.534012820531178</v>
       </c>
       <c r="I18" t="n">
-        <v>33.98819284340131</v>
+        <v>33.98819284340134</v>
       </c>
       <c r="J18" t="n">
-        <v>93.26619898595001</v>
+        <v>93.26619898595008</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4067892885995</v>
+        <v>159.4067892885996</v>
       </c>
       <c r="L18" t="n">
-        <v>214.3421002181633</v>
+        <v>214.3421002181634</v>
       </c>
       <c r="M18" t="n">
-        <v>242.3641511092266</v>
+        <v>187.7509246145784</v>
       </c>
       <c r="N18" t="n">
-        <v>177.22841082186</v>
+        <v>231.8416373165091</v>
       </c>
       <c r="O18" t="n">
-        <v>234.8735665192345</v>
+        <v>234.8735665192346</v>
       </c>
       <c r="P18" t="n">
-        <v>188.5067439510836</v>
+        <v>188.5067439510837</v>
       </c>
       <c r="Q18" t="n">
-        <v>126.0117661801722</v>
+        <v>126.0117661801723</v>
       </c>
       <c r="R18" t="n">
-        <v>61.29131947658459</v>
+        <v>61.29131947658464</v>
       </c>
       <c r="S18" t="n">
-        <v>18.33630531105789</v>
+        <v>18.3363053110579</v>
       </c>
       <c r="T18" t="n">
-        <v>3.978999901030037</v>
+        <v>3.978999901030039</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06494559142051208</v>
+        <v>0.06494559142051212</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8276126731837927</v>
+        <v>0.8276126731837934</v>
       </c>
       <c r="H19" t="n">
-        <v>7.358229039761363</v>
+        <v>7.358229039761368</v>
       </c>
       <c r="I19" t="n">
-        <v>24.88857020810898</v>
+        <v>24.88857020810899</v>
       </c>
       <c r="J19" t="n">
-        <v>58.51221599409414</v>
+        <v>58.51221599409419</v>
       </c>
       <c r="K19" t="n">
-        <v>96.15354512080791</v>
+        <v>96.15354512080798</v>
       </c>
       <c r="L19" t="n">
-        <v>123.0434332477068</v>
+        <v>123.0434332477069</v>
       </c>
       <c r="M19" t="n">
-        <v>129.7320483973467</v>
+        <v>129.7320483973468</v>
       </c>
       <c r="N19" t="n">
-        <v>126.6473102518436</v>
+        <v>126.6473102518437</v>
       </c>
       <c r="O19" t="n">
-        <v>116.9792894787419</v>
+        <v>116.979289478742</v>
       </c>
       <c r="P19" t="n">
-        <v>100.0959909457925</v>
+        <v>100.0959909457926</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.30127575178105</v>
+        <v>69.30127575178111</v>
       </c>
       <c r="R19" t="n">
-        <v>37.21247528697307</v>
+        <v>37.2124752869731</v>
       </c>
       <c r="S19" t="n">
-        <v>14.42303176812118</v>
+        <v>14.42303176812119</v>
       </c>
       <c r="T19" t="n">
-        <v>3.536163239967113</v>
+        <v>3.536163239967116</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04514250944638875</v>
+        <v>0.04514250944638878</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.84502048658607</v>
+        <v>1.845020486586071</v>
       </c>
       <c r="H20" t="n">
-        <v>18.89531605824959</v>
+        <v>18.8953160582496</v>
       </c>
       <c r="I20" t="n">
-        <v>71.1301523091095</v>
+        <v>71.13015230910956</v>
       </c>
       <c r="J20" t="n">
-        <v>156.5938075233846</v>
+        <v>156.5938075233847</v>
       </c>
       <c r="K20" t="n">
-        <v>234.6935247205729</v>
+        <v>234.6935247205731</v>
       </c>
       <c r="L20" t="n">
-        <v>291.1580704369314</v>
+        <v>291.1580704369316</v>
       </c>
       <c r="M20" t="n">
-        <v>323.9694535152564</v>
+        <v>323.9694535152566</v>
       </c>
       <c r="N20" t="n">
-        <v>327.4612050419349</v>
+        <v>327.4612050419353</v>
       </c>
       <c r="O20" t="n">
-        <v>310.8651955092789</v>
+        <v>310.8651955092791</v>
       </c>
       <c r="P20" t="n">
-        <v>265.3162522466852</v>
+        <v>265.3162522466854</v>
       </c>
       <c r="Q20" t="n">
-        <v>199.2414560708216</v>
+        <v>199.2414560708217</v>
       </c>
       <c r="R20" t="n">
-        <v>115.8972681405123</v>
+        <v>115.8972681405124</v>
       </c>
       <c r="S20" t="n">
-        <v>42.0434043380801</v>
+        <v>42.04340433808013</v>
       </c>
       <c r="T20" t="n">
-        <v>8.076577180030522</v>
+        <v>8.076577180030529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1476016389268855</v>
+        <v>0.1476016389268856</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9871729895917831</v>
+        <v>0.9871729895917839</v>
       </c>
       <c r="H21" t="n">
-        <v>9.534012820531171</v>
+        <v>9.534012820531178</v>
       </c>
       <c r="I21" t="n">
-        <v>33.98819284340131</v>
+        <v>33.98819284340134</v>
       </c>
       <c r="J21" t="n">
-        <v>93.26619898595001</v>
+        <v>93.26619898595008</v>
       </c>
       <c r="K21" t="n">
-        <v>159.4067892885995</v>
+        <v>159.4067892885996</v>
       </c>
       <c r="L21" t="n">
-        <v>159.7288737235145</v>
+        <v>214.3421002181634</v>
       </c>
       <c r="M21" t="n">
-        <v>242.3641511092266</v>
+        <v>187.7509246145784</v>
       </c>
       <c r="N21" t="n">
-        <v>231.8416373165087</v>
+        <v>231.8416373165091</v>
       </c>
       <c r="O21" t="n">
-        <v>234.8735665192345</v>
+        <v>234.8735665192346</v>
       </c>
       <c r="P21" t="n">
-        <v>188.5067439510836</v>
+        <v>188.5067439510837</v>
       </c>
       <c r="Q21" t="n">
-        <v>126.0117661801722</v>
+        <v>126.0117661801723</v>
       </c>
       <c r="R21" t="n">
-        <v>61.29131947658459</v>
+        <v>61.29131947658464</v>
       </c>
       <c r="S21" t="n">
-        <v>18.33630531105789</v>
+        <v>18.3363053110579</v>
       </c>
       <c r="T21" t="n">
-        <v>3.978999901030037</v>
+        <v>3.978999901030039</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06494559142051208</v>
+        <v>0.06494559142051212</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8276126731837927</v>
+        <v>0.8276126731837934</v>
       </c>
       <c r="H22" t="n">
-        <v>7.358229039761363</v>
+        <v>7.358229039761368</v>
       </c>
       <c r="I22" t="n">
-        <v>24.88857020810898</v>
+        <v>24.88857020810899</v>
       </c>
       <c r="J22" t="n">
-        <v>58.51221599409414</v>
+        <v>58.51221599409419</v>
       </c>
       <c r="K22" t="n">
-        <v>96.15354512080791</v>
+        <v>96.15354512080798</v>
       </c>
       <c r="L22" t="n">
-        <v>123.0434332477068</v>
+        <v>123.0434332477069</v>
       </c>
       <c r="M22" t="n">
-        <v>129.7320483973467</v>
+        <v>129.7320483973468</v>
       </c>
       <c r="N22" t="n">
-        <v>126.6473102518436</v>
+        <v>126.6473102518437</v>
       </c>
       <c r="O22" t="n">
-        <v>116.9792894787419</v>
+        <v>116.979289478742</v>
       </c>
       <c r="P22" t="n">
-        <v>100.0959909457925</v>
+        <v>100.0959909457926</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.30127575178105</v>
+        <v>69.30127575178111</v>
       </c>
       <c r="R22" t="n">
-        <v>37.21247528697307</v>
+        <v>37.2124752869731</v>
       </c>
       <c r="S22" t="n">
-        <v>14.42303176812118</v>
+        <v>14.42303176812119</v>
       </c>
       <c r="T22" t="n">
-        <v>3.536163239967113</v>
+        <v>3.536163239967116</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04514250944638875</v>
+        <v>0.04514250944638878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,28 +32703,28 @@
         <v>1.866182341381062</v>
       </c>
       <c r="H23" t="n">
-        <v>19.11203990366881</v>
+        <v>19.1120399036688</v>
       </c>
       <c r="I23" t="n">
-        <v>71.94599471609347</v>
+        <v>71.94599471609345</v>
       </c>
       <c r="J23" t="n">
-        <v>158.3898934967911</v>
+        <v>158.389893496791</v>
       </c>
       <c r="K23" t="n">
-        <v>237.3853920074515</v>
+        <v>237.3853920074514</v>
       </c>
       <c r="L23" t="n">
         <v>294.4975698374922</v>
       </c>
       <c r="M23" t="n">
-        <v>327.6852900510277</v>
+        <v>327.6852900510276</v>
       </c>
       <c r="N23" t="n">
         <v>332.9875806284766</v>
       </c>
       <c r="O23" t="n">
-        <v>314.4307299713687</v>
+        <v>314.4307299713686</v>
       </c>
       <c r="P23" t="n">
         <v>268.3593534185237</v>
@@ -32733,7 +32733,7 @@
         <v>201.5266983178143</v>
       </c>
       <c r="R23" t="n">
-        <v>117.2265765017783</v>
+        <v>117.2265765017782</v>
       </c>
       <c r="S23" t="n">
         <v>42.52563010422099</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9984955801078021</v>
+        <v>0.9984955801078019</v>
       </c>
       <c r="H24" t="n">
         <v>9.643365207883248</v>
@@ -32788,22 +32788,22 @@
         <v>34.37802764844845</v>
       </c>
       <c r="J24" t="n">
-        <v>94.33593548729021</v>
+        <v>94.3359354872902</v>
       </c>
       <c r="K24" t="n">
         <v>161.2351393545129</v>
       </c>
       <c r="L24" t="n">
-        <v>216.8005425141963</v>
+        <v>216.8005425141962</v>
       </c>
       <c r="M24" t="n">
-        <v>194.9639206114857</v>
+        <v>194.9639206114854</v>
       </c>
       <c r="N24" t="n">
-        <v>237.3680129030505</v>
+        <v>237.3680129030504</v>
       </c>
       <c r="O24" t="n">
-        <v>237.5674988338068</v>
+        <v>237.5674988338067</v>
       </c>
       <c r="P24" t="n">
         <v>190.668862134796</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8371051527219565</v>
+        <v>0.8371051527219564</v>
       </c>
       <c r="H25" t="n">
-        <v>7.442625812382492</v>
+        <v>7.442625812382491</v>
       </c>
       <c r="I25" t="n">
-        <v>25.17403495640212</v>
+        <v>25.17403495640211</v>
       </c>
       <c r="J25" t="n">
-        <v>59.18333429744232</v>
+        <v>59.18333429744231</v>
       </c>
       <c r="K25" t="n">
-        <v>97.25639865260547</v>
+        <v>97.25639865260545</v>
       </c>
       <c r="L25" t="n">
-        <v>124.4547060692262</v>
+        <v>124.4547060692261</v>
       </c>
       <c r="M25" t="n">
         <v>131.2200377125881</v>
@@ -32888,10 +32888,10 @@
         <v>101.2440631982991</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.09614147019947</v>
+        <v>70.09614147019946</v>
       </c>
       <c r="R25" t="n">
-        <v>37.63929168511633</v>
+        <v>37.63929168511632</v>
       </c>
       <c r="S25" t="n">
         <v>14.58845979789082</v>
@@ -33028,7 +33028,7 @@
         <v>94.3359354872902</v>
       </c>
       <c r="K27" t="n">
-        <v>161.2351393545129</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
         <v>216.8005425141962</v>
@@ -33037,10 +33037,10 @@
         <v>247.8905266957683</v>
       </c>
       <c r="N27" t="n">
-        <v>184.4414068187675</v>
+        <v>237.3680129030504</v>
       </c>
       <c r="O27" t="n">
-        <v>237.5674988338067</v>
+        <v>211.4806291040368</v>
       </c>
       <c r="P27" t="n">
         <v>190.668862134796</v>
@@ -33502,7 +33502,7 @@
         <v>94.3359354872902</v>
       </c>
       <c r="K33" t="n">
-        <v>134.395403</v>
+        <v>161.2351393545129</v>
       </c>
       <c r="L33" t="n">
         <v>216.8005425141962</v>
@@ -33511,7 +33511,7 @@
         <v>247.8905266957683</v>
       </c>
       <c r="N33" t="n">
-        <v>211.2811431732805</v>
+        <v>184.4414068187675</v>
       </c>
       <c r="O33" t="n">
         <v>237.5674988338067</v>
@@ -33985,10 +33985,10 @@
         <v>247.8905266957683</v>
       </c>
       <c r="N39" t="n">
-        <v>184.4414068187675</v>
+        <v>237.3680129030504</v>
       </c>
       <c r="O39" t="n">
-        <v>237.5674988338067</v>
+        <v>184.6408927495239</v>
       </c>
       <c r="P39" t="n">
         <v>190.668862134796</v>
@@ -34213,16 +34213,16 @@
         <v>94.3359354872902</v>
       </c>
       <c r="K42" t="n">
-        <v>134.395403</v>
+        <v>161.2351393545129</v>
       </c>
       <c r="L42" t="n">
         <v>216.8005425141962</v>
       </c>
       <c r="M42" t="n">
-        <v>221.8036569659984</v>
+        <v>247.8905266957683</v>
       </c>
       <c r="N42" t="n">
-        <v>237.3680129030504</v>
+        <v>184.4414068187675</v>
       </c>
       <c r="O42" t="n">
         <v>237.5674988338067</v>
@@ -34383,7 +34383,7 @@
         <v>332.9875806284766</v>
       </c>
       <c r="O44" t="n">
-        <v>314.4307299713686</v>
+        <v>314.4307299713688</v>
       </c>
       <c r="P44" t="n">
         <v>268.3593534185237</v>
@@ -34450,10 +34450,10 @@
         <v>94.3359354872902</v>
       </c>
       <c r="K45" t="n">
-        <v>161.2351393545129</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>216.8005425141962</v>
+        <v>190.7136727844263</v>
       </c>
       <c r="M45" t="n">
         <v>247.8905266957683</v>
@@ -34462,7 +34462,7 @@
         <v>237.3680129030504</v>
       </c>
       <c r="O45" t="n">
-        <v>184.6408927495239</v>
+        <v>237.5674988338067</v>
       </c>
       <c r="P45" t="n">
         <v>190.668862134796</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>20.10591995171686</v>
+        <v>20.10591995171703</v>
       </c>
       <c r="L11" t="n">
-        <v>61.28581584119382</v>
+        <v>61.28581584119405</v>
       </c>
       <c r="M11" t="n">
-        <v>99.38187611866545</v>
+        <v>99.38187611866567</v>
       </c>
       <c r="N11" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="O11" t="n">
-        <v>86.51943937313425</v>
+        <v>86.51943937313447</v>
       </c>
       <c r="P11" t="n">
-        <v>39.86408138529737</v>
+        <v>39.8640813852976</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.01138628859945</v>
+        <v>25.01138628859957</v>
       </c>
       <c r="L12" t="n">
-        <v>24.63835343813724</v>
+        <v>79.25157993278606</v>
       </c>
       <c r="M12" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="N12" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="O12" t="n">
-        <v>95.84222818590112</v>
+        <v>95.84222818590129</v>
       </c>
       <c r="P12" t="n">
-        <v>57.88169672211157</v>
+        <v>3.268470227463107</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35579,7 +35579,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.153904398241195</v>
+        <v>2.153904398241281</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>20.10591995171688</v>
+        <v>20.10591995171703</v>
       </c>
       <c r="L14" t="n">
-        <v>61.28581584119382</v>
+        <v>61.28581584119405</v>
       </c>
       <c r="M14" t="n">
-        <v>99.3818761186655</v>
+        <v>99.38187611866567</v>
       </c>
       <c r="N14" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="O14" t="n">
-        <v>86.5194393731343</v>
+        <v>86.51943937313447</v>
       </c>
       <c r="P14" t="n">
-        <v>39.86408138529742</v>
+        <v>39.8640813852976</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.01138628859945</v>
+        <v>25.01138628859957</v>
       </c>
       <c r="L15" t="n">
-        <v>79.25157993278592</v>
+        <v>79.25157993278606</v>
       </c>
       <c r="M15" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="N15" t="n">
-        <v>103.7834680352587</v>
+        <v>103.783468035259</v>
       </c>
       <c r="O15" t="n">
-        <v>41.22900169125242</v>
+        <v>95.84222818590129</v>
       </c>
       <c r="P15" t="n">
-        <v>57.8816967221116</v>
+        <v>3.268470227463107</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2.15390439824121</v>
+        <v>2.153904398241281</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>20.10591995171688</v>
+        <v>20.10591995171706</v>
       </c>
       <c r="L17" t="n">
-        <v>61.28581584119382</v>
+        <v>61.28581584119405</v>
       </c>
       <c r="M17" t="n">
-        <v>99.3818761186655</v>
+        <v>99.38187611866573</v>
       </c>
       <c r="N17" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="O17" t="n">
-        <v>86.5194393731343</v>
+        <v>86.51943937313453</v>
       </c>
       <c r="P17" t="n">
-        <v>39.86408138529742</v>
+        <v>39.8640813852976</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>25.01138628859945</v>
+        <v>25.0113862885996</v>
       </c>
       <c r="L18" t="n">
-        <v>79.25157993278592</v>
+        <v>79.25157993278609</v>
       </c>
       <c r="M18" t="n">
-        <v>103.7834680352587</v>
+        <v>49.17024154061053</v>
       </c>
       <c r="N18" t="n">
-        <v>49.17024154060999</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="O18" t="n">
-        <v>95.84222818590115</v>
+        <v>95.84222818590132</v>
       </c>
       <c r="P18" t="n">
-        <v>57.8816967221116</v>
+        <v>57.88169672211174</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.15390439824121</v>
+        <v>2.153904398241295</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>20.10591995171688</v>
+        <v>20.10591995171706</v>
       </c>
       <c r="L20" t="n">
-        <v>61.28581584119382</v>
+        <v>61.28581584119405</v>
       </c>
       <c r="M20" t="n">
-        <v>99.3818761186655</v>
+        <v>99.38187611866573</v>
       </c>
       <c r="N20" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="O20" t="n">
-        <v>86.5194393731343</v>
+        <v>86.51943937313453</v>
       </c>
       <c r="P20" t="n">
-        <v>39.86408138529742</v>
+        <v>39.8640813852976</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.01138628859945</v>
+        <v>25.0113862885996</v>
       </c>
       <c r="L21" t="n">
-        <v>24.63835343813719</v>
+        <v>79.25157993278609</v>
       </c>
       <c r="M21" t="n">
-        <v>103.7834680352587</v>
+        <v>49.17024154061053</v>
       </c>
       <c r="N21" t="n">
-        <v>103.7834680352587</v>
+        <v>103.7834680352591</v>
       </c>
       <c r="O21" t="n">
-        <v>95.84222818590115</v>
+        <v>95.84222818590132</v>
       </c>
       <c r="P21" t="n">
-        <v>57.8816967221116</v>
+        <v>57.88169672211174</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15390439824121</v>
+        <v>2.153904398241295</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36360,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>22.79778723859542</v>
+        <v>22.79778723859539</v>
       </c>
       <c r="L23" t="n">
-        <v>64.62531524175466</v>
+        <v>64.62531524175461</v>
       </c>
       <c r="M23" t="n">
         <v>103.0977126544367</v>
@@ -36372,7 +36372,7 @@
         <v>109.3098436218005</v>
       </c>
       <c r="O23" t="n">
-        <v>90.08497383522413</v>
+        <v>90.08497383522408</v>
       </c>
       <c r="P23" t="n">
         <v>42.90718255713585</v>
@@ -36442,16 +36442,16 @@
         <v>26.83973635451292</v>
       </c>
       <c r="L24" t="n">
-        <v>81.7100222288189</v>
+        <v>81.71002222881887</v>
       </c>
       <c r="M24" t="n">
-        <v>56.38323753751781</v>
+        <v>56.38323753751758</v>
       </c>
       <c r="N24" t="n">
         <v>109.3098436218005</v>
       </c>
       <c r="O24" t="n">
-        <v>98.53616050047344</v>
+        <v>98.53616050047341</v>
       </c>
       <c r="P24" t="n">
         <v>60.04381490582401</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.606512653385849</v>
+        <v>3.60651265338582</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>26.83973635451292</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>81.71002222881887</v>
       </c>
       <c r="M27" t="n">
-        <v>109.3098436218004</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="N27" t="n">
-        <v>56.38323753751749</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="O27" t="n">
-        <v>98.53616050047341</v>
+        <v>72.44929077070344</v>
       </c>
       <c r="P27" t="n">
         <v>60.04381490582401</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>26.83973635451292</v>
       </c>
       <c r="L33" t="n">
         <v>81.71002222881887</v>
       </c>
       <c r="M33" t="n">
-        <v>109.3098436218005</v>
+        <v>109.3098436218004</v>
       </c>
       <c r="N33" t="n">
-        <v>83.22297389203054</v>
+        <v>56.38323753751749</v>
       </c>
       <c r="O33" t="n">
         <v>98.53616050047341</v>
@@ -37630,13 +37630,13 @@
         <v>81.71002222881887</v>
       </c>
       <c r="M39" t="n">
-        <v>109.3098436218004</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="N39" t="n">
-        <v>56.38323753751749</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="O39" t="n">
-        <v>98.53616050047341</v>
+        <v>45.60955441619054</v>
       </c>
       <c r="P39" t="n">
         <v>60.04381490582401</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>26.83973635451292</v>
       </c>
       <c r="L42" t="n">
         <v>81.71002222881887</v>
       </c>
       <c r="M42" t="n">
-        <v>83.2229738920305</v>
+        <v>109.3098436218005</v>
       </c>
       <c r="N42" t="n">
-        <v>109.3098436218005</v>
+        <v>56.38323753751758</v>
       </c>
       <c r="O42" t="n">
         <v>98.53616050047341</v>
@@ -38031,7 +38031,7 @@
         <v>109.3098436218005</v>
       </c>
       <c r="O44" t="n">
-        <v>90.08497383522408</v>
+        <v>90.08497383522423</v>
       </c>
       <c r="P44" t="n">
         <v>42.90718255713585</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.83973635451292</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>81.71002222881887</v>
+        <v>55.62315249904891</v>
       </c>
       <c r="M45" t="n">
         <v>109.3098436218005</v>
@@ -38110,7 +38110,7 @@
         <v>109.3098436218005</v>
       </c>
       <c r="O45" t="n">
-        <v>45.60955441619054</v>
+        <v>98.53616050047341</v>
       </c>
       <c r="P45" t="n">
         <v>60.04381490582401</v>
